--- a/SourceDataTables/FigS15b.xlsx
+++ b/SourceDataTables/FigS15b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -57,11 +57,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -73,6 +87,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,10 +118,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS15b.xlsx
+++ b/SourceDataTables/FigS15b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -71,11 +71,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -101,6 +105,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,10 +126,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS15b.xlsx
+++ b/SourceDataTables/FigS15b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -55,31 +55,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -89,26 +69,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,14 +82,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -138,7 +98,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.6226015661243044</v>
+        <v>0.62528414414654432</v>
       </c>
     </row>
     <row r="3">
@@ -146,7 +106,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.86578003230492495</v>
+        <v>0.86887275963379296</v>
       </c>
     </row>
     <row r="4">
@@ -154,7 +114,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.033055986151697636</v>
+        <v>0.035569789135274678</v>
       </c>
     </row>
     <row r="5">
@@ -162,7 +122,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.70952346031862334</v>
+        <v>0.71328120018762919</v>
       </c>
     </row>
     <row r="6">
@@ -170,7 +130,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.024408849495703128</v>
+        <v>0.026051959043833502</v>
       </c>
     </row>
     <row r="7">
@@ -178,7 +138,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.53446990693675089</v>
+        <v>0.53673644370913498</v>
       </c>
     </row>
     <row r="8">
@@ -186,7 +146,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.80161474179136982</v>
+        <v>0.80436194048903431</v>
       </c>
     </row>
     <row r="9">
@@ -194,7 +154,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.98164049448185087</v>
+        <v>0.98489876486466676</v>
       </c>
     </row>
     <row r="10">
@@ -202,7 +162,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.97447314813771624</v>
+        <v>0.97802804555615142</v>
       </c>
     </row>
     <row r="11">
@@ -210,7 +170,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.97578081695157826</v>
+        <v>0.97931581428470549</v>
       </c>
     </row>
     <row r="12">
@@ -218,7 +178,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.56907182762671316</v>
+        <v>0.57038113118447509</v>
       </c>
     </row>
     <row r="13">
@@ -226,7 +186,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.81616558281381024</v>
+        <v>0.81765126778072983</v>
       </c>
     </row>
     <row r="14">
@@ -234,7 +194,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.0056960881401813</v>
+        <v>1.0076321043335501</v>
       </c>
     </row>
     <row r="15">
@@ -242,7 +202,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.1521398120301474</v>
+        <v>1.1546201884953329</v>
       </c>
     </row>
     <row r="16">
@@ -250,7 +210,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.193645496533952</v>
+        <v>1.196606423944836</v>
       </c>
     </row>
     <row r="17">
@@ -258,7 +218,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.2046186060954918</v>
+        <v>1.2075753247428316</v>
       </c>
     </row>
     <row r="18">
@@ -266,7 +226,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.1156978853538226</v>
+        <v>1.1189388936471527</v>
       </c>
     </row>
     <row r="19">
@@ -274,7 +234,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.95776529594772197</v>
+        <v>0.96091758451899267</v>
       </c>
     </row>
     <row r="20">
@@ -282,7 +242,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.0082947591541831</v>
+        <v>1.0089866339178979</v>
       </c>
     </row>
     <row r="21">
@@ -290,7 +250,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.1278354423961419</v>
+        <v>1.1286571545256099</v>
       </c>
     </row>
     <row r="22">
@@ -298,7 +258,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.2415402695018125</v>
+        <v>1.2428646987419034</v>
       </c>
     </row>
     <row r="23">
@@ -306,7 +266,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.3050897865410263</v>
+        <v>1.3068555679514759</v>
       </c>
     </row>
     <row r="24">
@@ -314,7 +274,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.3079960925204344</v>
+        <v>1.3097318585258579</v>
       </c>
     </row>
     <row r="25">
@@ -322,7 +282,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.2661470127631811</v>
+        <v>1.2685146874910009</v>
       </c>
     </row>
     <row r="26">
@@ -330,7 +290,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.1760694802362679</v>
+        <v>1.1785140610253193</v>
       </c>
     </row>
     <row r="27">
@@ -338,7 +298,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.0251995900929822</v>
+        <v>1.0278345923447854</v>
       </c>
     </row>
     <row r="28">
@@ -346,7 +306,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.1549034349118481</v>
+        <v>1.1549411950854191</v>
       </c>
     </row>
     <row r="29">
@@ -354,7 +314,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.230283332617002</v>
+        <v>1.2306282632212726</v>
       </c>
     </row>
     <row r="30">
@@ -362,7 +322,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.2845989651096188</v>
+        <v>1.2853720321890809</v>
       </c>
     </row>
     <row r="31">
@@ -370,7 +330,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.2851504352270926</v>
+        <v>1.28590447504248</v>
       </c>
     </row>
     <row r="32">
@@ -378,7 +338,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.3229323924141252</v>
+        <v>1.3241008322785823</v>
       </c>
     </row>
     <row r="33">
@@ -386,7 +346,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.2874995728326117</v>
+        <v>1.2891164953305863</v>
       </c>
     </row>
     <row r="34">
@@ -394,7 +354,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1.1944051214653648</v>
+        <v>1.1960954617804644</v>
       </c>
     </row>
     <row r="35">
@@ -402,7 +362,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.0972658541118392</v>
+        <v>1.0964628135962802</v>
       </c>
     </row>
     <row r="36">
@@ -410,7 +370,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.1652512614363832</v>
+        <v>1.1646949194672038</v>
       </c>
     </row>
     <row r="37">
@@ -418,7 +378,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1.1905738162642887</v>
+        <v>1.19021662764882</v>
       </c>
     </row>
     <row r="38">
@@ -426,7 +386,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1.1970377726531016</v>
+        <v>1.1966824715974773</v>
       </c>
     </row>
     <row r="39">
@@ -434,7 +394,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1.2411906783585107</v>
+        <v>1.2411552857743202</v>
       </c>
     </row>
     <row r="40">
@@ -442,7 +402,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.2680306530420089</v>
+        <v>1.2683836172308323</v>
       </c>
     </row>
     <row r="41">
@@ -450,7 +410,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1.2245020928566954</v>
+        <v>1.2252410382368557</v>
       </c>
     </row>
     <row r="42">
@@ -458,7 +418,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.1242035928112659</v>
+        <v>1.1232570941012867</v>
       </c>
     </row>
     <row r="43">
@@ -466,7 +426,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1.1668587183032837</v>
+        <v>1.1658369295575373</v>
       </c>
     </row>
     <row r="44">
@@ -474,7 +434,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.1649731504063705</v>
+        <v>1.1639435569727925</v>
       </c>
     </row>
     <row r="45">
@@ -482,7 +442,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.1737603990344991</v>
+        <v>1.1729739319772374</v>
       </c>
     </row>
     <row r="46">
@@ -490,7 +450,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.1997738618415819</v>
+        <v>1.1991754425819863</v>
       </c>
     </row>
     <row r="47">
@@ -498,7 +458,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.1406737373880147</v>
+        <v>1.1395618667834293</v>
       </c>
     </row>
     <row r="48">
@@ -506,7 +466,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.1383526797281507</v>
+        <v>1.1372368116900735</v>
       </c>
     </row>
     <row r="49">
@@ -514,7 +474,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.26576290946410935</v>
+        <v>0.2687541594599821</v>
       </c>
     </row>
     <row r="50">
@@ -522,7 +482,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.32037836810519393</v>
+        <v>0.32354270153564535</v>
       </c>
     </row>
     <row r="51">
@@ -530,7 +490,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.43230146360522792</v>
+        <v>0.43589819288718895</v>
       </c>
     </row>
     <row r="52">
@@ -538,7 +498,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.41092338459351996</v>
+        <v>0.41478303998263477</v>
       </c>
     </row>
     <row r="53">
@@ -546,7 +506,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-0.16905911709708507</v>
+        <v>-0.16722074981408841</v>
       </c>
     </row>
     <row r="54">
@@ -554,7 +514,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.31623132347177169</v>
+        <v>0.31832091638516091</v>
       </c>
     </row>
     <row r="55">
@@ -562,7 +522,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.54405255092513116</v>
+        <v>0.54644572460770779</v>
       </c>
     </row>
     <row r="56">
@@ -570,7 +530,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.69727649717824369</v>
+        <v>0.70028988775984558</v>
       </c>
     </row>
     <row r="57">
@@ -578,7 +538,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.69620421886968686</v>
+        <v>0.69967516046714706</v>
       </c>
     </row>
     <row r="58">
@@ -586,7 +546,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.69338262178344379</v>
+        <v>0.69682467293683503</v>
       </c>
     </row>
     <row r="59">
@@ -594,7 +554,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.58383280778125091</v>
+        <v>0.58749453131624241</v>
       </c>
     </row>
     <row r="60">
@@ -602,7 +562,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.26837115071558787</v>
+        <v>0.26937859355336213</v>
       </c>
     </row>
     <row r="61">
@@ -610,7 +570,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.49035960762098213</v>
+        <v>0.49149084653288605</v>
       </c>
     </row>
     <row r="62">
@@ -618,7 +578,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.672130663169488</v>
+        <v>0.6734619286858381</v>
       </c>
     </row>
     <row r="63">
@@ -626,7 +586,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.82978642607523601</v>
+        <v>0.83179968238068047</v>
       </c>
     </row>
     <row r="64">
@@ -634,7 +594,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.89084271360363021</v>
+        <v>0.89350991721347983</v>
       </c>
     </row>
     <row r="65">
@@ -642,7 +602,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.89794375015241834</v>
+        <v>0.90060451050111556</v>
       </c>
     </row>
     <row r="66">
@@ -650,7 +610,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.88972954125164805</v>
+        <v>0.89293251782329519</v>
       </c>
     </row>
     <row r="67">
@@ -658,7 +618,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.76457494148249883</v>
+        <v>0.76768060469965116</v>
       </c>
     </row>
     <row r="68">
@@ -666,7 +626,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.49095089544834691</v>
+        <v>0.49126337291471589</v>
       </c>
     </row>
     <row r="69">
@@ -674,7 +634,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.62702272019861982</v>
+        <v>0.62719978381422381</v>
       </c>
     </row>
     <row r="70">
@@ -682,7 +642,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.77131147205564687</v>
+        <v>0.77180016318545519</v>
       </c>
     </row>
     <row r="71">
@@ -690,7 +650,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.90577621250873375</v>
+        <v>0.90681965270675924</v>
       </c>
     </row>
     <row r="72">
@@ -698,7 +658,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1.0021916292300619</v>
+        <v>1.003867172205086</v>
       </c>
     </row>
     <row r="73">
@@ -706,7 +666,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.994788930065032</v>
+        <v>0.99644356607806428</v>
       </c>
     </row>
     <row r="74">
@@ -714,7 +674,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1.0004152249982443</v>
+        <v>1.002428119000861</v>
       </c>
     </row>
     <row r="75">
@@ -722,7 +682,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.97498021765700726</v>
+        <v>0.97732465489840747</v>
       </c>
     </row>
     <row r="76">
@@ -730,7 +690,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.90030367277759971</v>
+        <v>0.90293261789179802</v>
       </c>
     </row>
     <row r="77">
@@ -738,7 +698,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.77066981985327454</v>
+        <v>0.77347005454543616</v>
       </c>
     </row>
     <row r="78">
@@ -746,7 +706,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.7498778202625147</v>
+        <v>0.7491911788224862</v>
       </c>
     </row>
     <row r="79">
@@ -754,7 +714,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.8526473117545933</v>
+        <v>0.85243199195211361</v>
       </c>
     </row>
     <row r="80">
@@ -762,7 +722,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.91905233290319976</v>
+        <v>0.91914417466960985</v>
       </c>
     </row>
     <row r="81">
@@ -770,7 +730,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.98057170237307967</v>
+        <v>0.98088675441455209</v>
       </c>
     </row>
     <row r="82">
@@ -778,7 +738,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.98843028421640666</v>
+        <v>0.98876382886491043</v>
       </c>
     </row>
     <row r="83">
@@ -786,7 +746,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.69019496221116461</v>
+        <v>0.69075843251182811</v>
       </c>
     </row>
     <row r="84">
@@ -794,7 +754,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1.0984308414353865</v>
+        <v>1.0999731235859209</v>
       </c>
     </row>
     <row r="85">
@@ -802,7 +762,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1.0868799594904222</v>
+        <v>1.0886651968313312</v>
       </c>
     </row>
     <row r="86">
@@ -810,7 +770,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1.0176623096486823</v>
+        <v>1.0199298635956275</v>
       </c>
     </row>
     <row r="87">
@@ -818,7 +778,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.80178030244995813</v>
+        <v>0.8005697766091302</v>
       </c>
     </row>
     <row r="88">
@@ -826,7 +786,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.87036557153382343</v>
+        <v>0.86947669274298744</v>
       </c>
     </row>
     <row r="89">
@@ -834,7 +794,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.94504398739494055</v>
+        <v>0.94422078278673582</v>
       </c>
     </row>
     <row r="90">
@@ -842,7 +802,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.96977019581310597</v>
+        <v>0.9693309244691346</v>
       </c>
     </row>
     <row r="91">
@@ -850,7 +810,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.98541896412986651</v>
+        <v>0.98500623217742411</v>
       </c>
     </row>
     <row r="92">
@@ -858,7 +818,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1.0595139707911436</v>
+        <v>1.0594765612876067</v>
       </c>
     </row>
     <row r="93">
@@ -866,7 +826,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.1089000910170994</v>
+        <v>1.1093014470739007</v>
       </c>
     </row>
     <row r="94">
@@ -874,7 +834,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1.1598438216654017</v>
+        <v>1.1607721038356642</v>
       </c>
     </row>
     <row r="95">
@@ -882,7 +842,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.1543159868720423</v>
+        <v>1.1557150385145762</v>
       </c>
     </row>
     <row r="96">
@@ -890,7 +850,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1.0741950783822702</v>
+        <v>1.075912128691872</v>
       </c>
     </row>
     <row r="97">
@@ -898,7 +858,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.79137113476987486</v>
+        <v>0.79007895783032023</v>
       </c>
     </row>
     <row r="98">
@@ -906,7 +866,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.88455949651014243</v>
+        <v>0.88324050873941518</v>
       </c>
     </row>
     <row r="99">
@@ -914,7 +874,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.0142326167385218</v>
+        <v>1.0131759016796702</v>
       </c>
     </row>
     <row r="100">
@@ -922,7 +882,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1.0571455108561323</v>
+        <v>1.0562487590858798</v>
       </c>
     </row>
     <row r="101">
@@ -930,7 +890,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.0653344549638986</v>
+        <v>1.0644498360939729</v>
       </c>
     </row>
     <row r="102">
@@ -938,7 +898,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1.0786358473669477</v>
+        <v>1.0779644965106225</v>
       </c>
     </row>
     <row r="103">
@@ -946,7 +906,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.1087275681513489</v>
+        <v>1.1082251491587964</v>
       </c>
     </row>
     <row r="104">
@@ -954,7 +914,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1.1701835770384521</v>
+        <v>1.1701739570330056</v>
       </c>
     </row>
     <row r="105">
@@ -962,7 +922,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1.19476350383723</v>
+        <v>1.1951288365541088</v>
       </c>
     </row>
     <row r="106">
@@ -970,7 +930,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1.1563001931886177</v>
+        <v>1.1570793982141896</v>
       </c>
     </row>
     <row r="107">
@@ -978,7 +938,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.76508556059454158</v>
+        <v>0.76390325594191677</v>
       </c>
     </row>
     <row r="108">
@@ -986,7 +946,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.89308035114549078</v>
+        <v>0.89201712940933697</v>
       </c>
     </row>
     <row r="109">
@@ -994,7 +954,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.0520851548183192</v>
+        <v>1.0512328506058759</v>
       </c>
     </row>
     <row r="110">
@@ -1002,7 +962,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1.1457289303991369</v>
+        <v>1.1448121871126662</v>
       </c>
     </row>
     <row r="111">
@@ -1010,7 +970,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.1456953724502581</v>
+        <v>1.144777752392264</v>
       </c>
     </row>
     <row r="112">
@@ -1018,7 +978,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1.1732724624979027</v>
+        <v>1.172366495634543</v>
       </c>
     </row>
     <row r="113">
@@ -1026,7 +986,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1.1885220266397976</v>
+        <v>1.1875100737248065</v>
       </c>
     </row>
     <row r="114">
@@ -1034,7 +994,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1.1874091149447668</v>
+        <v>1.1865584075011011</v>
       </c>
     </row>
     <row r="115">
@@ -1042,7 +1002,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1.2074092233574207</v>
+        <v>1.2068581491070773</v>
       </c>
     </row>
     <row r="116">
@@ -1050,7 +1010,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1.2092424319188089</v>
+        <v>1.2090661754339656</v>
       </c>
     </row>
     <row r="117">
@@ -1058,7 +1018,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.87499280839339721</v>
+        <v>0.8739005569962649</v>
       </c>
     </row>
     <row r="118">
@@ -1066,7 +1026,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1.0378832778899916</v>
+        <v>1.0370062898674843</v>
       </c>
     </row>
     <row r="119">
@@ -1074,7 +1034,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1.1357889212585222</v>
+        <v>1.1348527412540734</v>
       </c>
     </row>
     <row r="120">
@@ -1082,7 +1042,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.134201416361825</v>
+        <v>1.1332617595558294</v>
       </c>
     </row>
     <row r="121">
@@ -1090,7 +1050,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1.161233162492489</v>
+        <v>1.1603078152181552</v>
       </c>
     </row>
     <row r="122">
@@ -1098,7 +1058,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1.1696324805872758</v>
+        <v>1.1685926517810188</v>
       </c>
     </row>
     <row r="123">
@@ -1106,7 +1066,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1.1624939559046326</v>
+        <v>1.1616054387431787</v>
       </c>
     </row>
     <row r="124">
@@ -1114,7 +1074,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.181507063121549</v>
+        <v>1.1809149263808862</v>
       </c>
     </row>
     <row r="125">
@@ -1122,7 +1082,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1.103259789491901</v>
+        <v>1.1026129562242177</v>
       </c>
     </row>
     <row r="126">
@@ -1130,7 +1090,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1.1059137284951694</v>
+        <v>1.1052665370270047</v>
       </c>
     </row>
     <row r="127">
@@ -1138,7 +1098,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1.213605747155339</v>
+        <v>1.2126869134904088</v>
       </c>
     </row>
     <row r="128">
@@ -1146,7 +1106,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1.2187916630154063</v>
+        <v>1.2175669471939248</v>
       </c>
     </row>
     <row r="129">
@@ -1154,7 +1114,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1.2171882339233995</v>
+        <v>1.2158660290746286</v>
       </c>
     </row>
     <row r="130">
@@ -1162,7 +1122,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1.2218763359011091</v>
+        <v>1.2206651166519089</v>
       </c>
     </row>
     <row r="131">
@@ -1170,7 +1130,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.2748083810642884</v>
+        <v>0.27783081926457825</v>
       </c>
     </row>
     <row r="132">
@@ -1178,7 +1138,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.37176437310625005</v>
+        <v>0.37517176910521954</v>
       </c>
     </row>
     <row r="133">
@@ -1186,7 +1146,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.32227987946848463</v>
+        <v>0.32544439422012278</v>
       </c>
     </row>
     <row r="134">
@@ -1194,7 +1154,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.434972547133748</v>
+        <v>0.43857393820612756</v>
       </c>
     </row>
     <row r="135">
@@ -1202,7 +1162,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.40360163463669185</v>
+        <v>0.40744457868258666</v>
       </c>
     </row>
     <row r="136">
@@ -1210,7 +1170,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-0.17506909512899241</v>
+        <v>-0.17326408581043498</v>
       </c>
     </row>
     <row r="137">
@@ -1218,7 +1178,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.32420444517272257</v>
+        <v>0.32631120435696687</v>
       </c>
     </row>
     <row r="138">
@@ -1226,7 +1186,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.55042800821862448</v>
+        <v>0.55283462891121427</v>
       </c>
     </row>
     <row r="139">
@@ -1234,7 +1194,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.69141306945153869</v>
+        <v>0.69441706827664895</v>
       </c>
     </row>
     <row r="140">
@@ -1242,7 +1202,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.68524753384321158</v>
+        <v>0.68869840181230157</v>
       </c>
     </row>
     <row r="141">
@@ -1250,7 +1210,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.6669641460084158</v>
+        <v>0.6703536856998733</v>
       </c>
     </row>
     <row r="142">
@@ -1258,7 +1218,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.54669191566934705</v>
+        <v>0.5502690456870426</v>
       </c>
     </row>
     <row r="143">
@@ -1266,7 +1226,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.27162302287539913</v>
+        <v>0.27262743193181133</v>
       </c>
     </row>
     <row r="144">
@@ -1274,7 +1234,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.49977255448261887</v>
+        <v>0.50092283191837328</v>
       </c>
     </row>
     <row r="145">
@@ -1282,7 +1242,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.68706409493833631</v>
+        <v>0.68841955540776179</v>
       </c>
     </row>
     <row r="146">
@@ -1290,7 +1250,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.8354789967687879</v>
+        <v>0.83750159673191227</v>
       </c>
     </row>
     <row r="147">
@@ -1298,7 +1258,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.8923049056428477</v>
+        <v>0.89498107517808601</v>
       </c>
     </row>
     <row r="148">
@@ -1306,7 +1266,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.88525286256976776</v>
+        <v>0.88790293806070153</v>
       </c>
     </row>
     <row r="149">
@@ -1314,7 +1274,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.86376502929179833</v>
+        <v>0.86693636198634538</v>
       </c>
     </row>
     <row r="150">
@@ -1322,7 +1282,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.7233560912447301</v>
+        <v>0.72639161647945028</v>
       </c>
     </row>
     <row r="151">
@@ -1330,7 +1290,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.51349941547511246</v>
+        <v>0.51384626956497803</v>
       </c>
     </row>
     <row r="152">
@@ -1338,7 +1298,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.64675665228187285</v>
+        <v>0.64696005421142377</v>
       </c>
     </row>
     <row r="153">
@@ -1346,7 +1306,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.79068788373733878</v>
+        <v>0.79118813365559437</v>
       </c>
     </row>
     <row r="154">
@@ -1354,7 +1314,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.92146259640463146</v>
+        <v>0.92251076310166702</v>
       </c>
     </row>
     <row r="155">
@@ -1362,7 +1322,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1.0029163943102246</v>
+        <v>1.0045948906997715</v>
       </c>
     </row>
     <row r="156">
@@ -1370,7 +1330,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.99209844093660149</v>
+        <v>0.99376774071565521</v>
       </c>
     </row>
     <row r="157">
@@ -1378,7 +1338,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.98973276603701188</v>
+        <v>0.99175124603874842</v>
       </c>
     </row>
     <row r="158">
@@ -1386,7 +1346,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.95299338317605375</v>
+        <v>0.95533091786871582</v>
       </c>
     </row>
     <row r="159">
@@ -1394,7 +1354,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.87539165928302487</v>
+        <v>0.87799165903824516</v>
       </c>
     </row>
     <row r="160">
@@ -1402,7 +1362,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.71526505771863136</v>
+        <v>0.71796666031972611</v>
       </c>
     </row>
     <row r="161">
@@ -1410,7 +1370,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.68357740937144273</v>
+        <v>0.68318344355294303</v>
       </c>
     </row>
     <row r="162">
@@ -1418,7 +1378,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.76772317033124415</v>
+        <v>0.76702971340851356</v>
       </c>
     </row>
     <row r="163">
@@ -1426,7 +1386,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.85890156717128474</v>
+        <v>0.85865608293778528</v>
       </c>
     </row>
     <row r="164">
@@ -1434,7 +1394,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.92151545901186516</v>
+        <v>0.9215823828128592</v>
       </c>
     </row>
     <row r="165">
@@ -1442,7 +1402,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.98804291881398409</v>
+        <v>0.98837325129432085</v>
       </c>
     </row>
     <row r="166">
@@ -1450,7 +1410,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.99749312394594258</v>
+        <v>0.99786391376443373</v>
       </c>
     </row>
     <row r="167">
@@ -1458,7 +1418,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.70092018570097891</v>
+        <v>0.70152869200961321</v>
       </c>
     </row>
     <row r="168">
@@ -1466,7 +1426,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1.1031864801870483</v>
+        <v>1.1047686540679127</v>
       </c>
     </row>
     <row r="169">
@@ -1474,7 +1434,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>1.0781932669573122</v>
+        <v>1.0800059871765346</v>
       </c>
     </row>
     <row r="170">
@@ -1482,7 +1442,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.98828238504912769</v>
+        <v>0.99053332825120621</v>
       </c>
     </row>
     <row r="171">
@@ -1490,7 +1450,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.71521239655095659</v>
+        <v>0.71419633292339024</v>
       </c>
     </row>
     <row r="172">
@@ -1498,7 +1458,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.79579417062674052</v>
+        <v>0.79453305222201698</v>
       </c>
     </row>
     <row r="173">
@@ -1506,7 +1466,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.86233097949496418</v>
+        <v>0.86140662253588596</v>
       </c>
     </row>
     <row r="174">
@@ -1514,7 +1474,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.94356546303855182</v>
+        <v>0.94272548704668124</v>
       </c>
     </row>
     <row r="175">
@@ -1522,7 +1482,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.97866528127923613</v>
+        <v>0.97823317798605558</v>
       </c>
     </row>
     <row r="176">
@@ -1530,7 +1490,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1.0012140327234011</v>
+        <v>1.000839252567391</v>
       </c>
     </row>
     <row r="177">
@@ -1538,7 +1498,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>1.0801678608306107</v>
+        <v>1.0801861341878138</v>
       </c>
     </row>
     <row r="178">
@@ -1546,7 +1506,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1.1288645389117296</v>
+        <v>1.1293303135623587</v>
       </c>
     </row>
     <row r="179">
@@ -1554,7 +1514,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>1.1745446680816687</v>
+        <v>1.1755537314960238</v>
       </c>
     </row>
     <row r="180">
@@ -1562,7 +1522,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>1.1467409838650082</v>
+        <v>1.1481753701961654</v>
       </c>
     </row>
     <row r="181">
@@ -1570,7 +1530,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1.0595642125624527</v>
+        <v>1.0613108265467726</v>
       </c>
     </row>
     <row r="182">
@@ -1578,7 +1538,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.66725294805510804</v>
+        <v>0.6660723676886332</v>
       </c>
     </row>
     <row r="183">
@@ -1586,7 +1546,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.77889557170760604</v>
+        <v>0.77756451064511145</v>
       </c>
     </row>
     <row r="184">
@@ -1594,7 +1554,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.87812795300192836</v>
+        <v>0.87678875952135971</v>
       </c>
     </row>
     <row r="185">
@@ -1602,7 +1562,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>1.0072407091720104</v>
+        <v>1.0061717372533237</v>
       </c>
     </row>
     <row r="186">
@@ -1610,7 +1570,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1.0593992384394948</v>
+        <v>1.0585079907920101</v>
       </c>
     </row>
     <row r="187">
@@ -1618,7 +1578,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1.0747516476839858</v>
+        <v>1.0738870716443398</v>
       </c>
     </row>
     <row r="188">
@@ -1626,7 +1586,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1.0890398934477161</v>
+        <v>1.088391920551411</v>
       </c>
     </row>
     <row r="189">
@@ -1634,7 +1594,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1.1249387886919322</v>
+        <v>1.1244682882498336</v>
       </c>
     </row>
     <row r="190">
@@ -1642,7 +1602,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1.191944926580232</v>
+        <v>1.1919930795654128</v>
       </c>
     </row>
     <row r="191">
@@ -1650,7 +1610,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1.208696754455046</v>
+        <v>1.2091145478899987</v>
       </c>
     </row>
     <row r="192">
@@ -1658,7 +1618,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1.1612604517402141</v>
+        <v>1.1620987114845549</v>
       </c>
     </row>
     <row r="193">
@@ -1666,7 +1626,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.5874040876619232</v>
+        <v>0.58624503305448084</v>
       </c>
     </row>
     <row r="194">
@@ -1674,7 +1634,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.75315261688342805</v>
+        <v>0.75194384480559096</v>
       </c>
     </row>
     <row r="195">
@@ -1682,7 +1642,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.88494556489199538</v>
+        <v>0.88386724343591494</v>
       </c>
     </row>
     <row r="196">
@@ -1690,7 +1650,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1.0456848862081214</v>
+        <v>1.0448230956642204</v>
       </c>
     </row>
     <row r="197">
@@ -1698,7 +1658,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1.1449811382929855</v>
+        <v>1.1440613454905073</v>
       </c>
     </row>
     <row r="198">
@@ -1706,7 +1666,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1.1453614176929765</v>
+        <v>1.144442167672074</v>
       </c>
     </row>
     <row r="199">
@@ -1714,7 +1674,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1.1728028677524009</v>
+        <v>1.171896768731977</v>
       </c>
     </row>
     <row r="200">
@@ -1722,7 +1682,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1.1912956668783787</v>
+        <v>1.1902857593724554</v>
       </c>
     </row>
     <row r="201">
@@ -1730,7 +1690,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1.1967420601018446</v>
+        <v>1.1959099755106568</v>
       </c>
     </row>
     <row r="202">
@@ -1738,7 +1698,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1.2192032403327127</v>
+        <v>1.2186848234418921</v>
       </c>
     </row>
     <row r="203">
@@ -1746,7 +1706,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1.2240298078105227</v>
+        <v>1.2239005407941901</v>
       </c>
     </row>
     <row r="204">
@@ -1754,7 +1714,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1.1118723624443492</v>
+        <v>1.1121339332340583</v>
       </c>
     </row>
     <row r="205">
@@ -1762,7 +1722,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.7305430955255684</v>
+        <v>0.72930352046804858</v>
       </c>
     </row>
     <row r="206">
@@ -1770,7 +1730,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.86612408020803144</v>
+        <v>0.86501877568202179</v>
       </c>
     </row>
     <row r="207">
@@ -1778,7 +1738,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1.0325461906599158</v>
+        <v>1.0316600813936954</v>
       </c>
     </row>
     <row r="208">
@@ -1786,7 +1746,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1.1311595567540207</v>
+        <v>1.1302137563668198</v>
       </c>
     </row>
     <row r="209">
@@ -1794,7 +1754,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>1.130027920677291</v>
+        <v>1.1290813815101852</v>
       </c>
     </row>
     <row r="210">
@@ -1802,7 +1762,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.1575280845285667</v>
+        <v>1.1565968313217181</v>
       </c>
     </row>
     <row r="211">
@@ -1810,7 +1770,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>1.1681096404466322</v>
+        <v>1.1670651485731596</v>
       </c>
     </row>
     <row r="212">
@@ -1818,7 +1778,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1.1613533278192383</v>
+        <v>1.1604645113910723</v>
       </c>
     </row>
     <row r="213">
@@ -1826,7 +1786,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1.1852293803047131</v>
+        <v>1.1846555526410154</v>
       </c>
     </row>
     <row r="214">
@@ -1834,7 +1794,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1.1985583498591774</v>
+        <v>1.1983785924818806</v>
       </c>
     </row>
     <row r="215">
@@ -1842,7 +1802,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1.0988565288968333</v>
+        <v>1.0990810113614007</v>
       </c>
     </row>
     <row r="216">
@@ -1850,7 +1810,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.77703744079616976</v>
+        <v>0.7762984439097449</v>
       </c>
     </row>
     <row r="217">
@@ -1858,7 +1818,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.93902328587688699</v>
+        <v>0.93833885294398611</v>
       </c>
     </row>
     <row r="218">
@@ -1866,7 +1826,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>1.0990322945651632</v>
+        <v>1.0983758953336951</v>
       </c>
     </row>
     <row r="219">
@@ -1874,7 +1834,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>1.1034090455286734</v>
+        <v>1.1027533997790508</v>
       </c>
     </row>
     <row r="220">
@@ -1882,7 +1842,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>1.2058359669685896</v>
+        <v>1.2049068116342014</v>
       </c>
     </row>
     <row r="221">
@@ -1890,7 +1850,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1.2133807899805125</v>
+        <v>1.2121462465117046</v>
       </c>
     </row>
     <row r="222">
@@ -1898,7 +1858,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1.2132775628102901</v>
+        <v>1.2119545091910751</v>
       </c>
     </row>
     <row r="223">
@@ -1906,7 +1866,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>1.2281222382991228</v>
+        <v>1.2269325338523247</v>
       </c>
     </row>
     <row r="224">
@@ -1914,7 +1874,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>1.2062822083996669</v>
+        <v>1.2053982747046523</v>
       </c>
     </row>
     <row r="225">
@@ -1922,7 +1882,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1.1065101684360568</v>
+        <v>1.1060642550304529</v>
       </c>
     </row>
     <row r="226">
@@ -1930,7 +1890,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.52292549398733412</v>
+        <v>0.52282349126889838</v>
       </c>
     </row>
     <row r="227">
@@ -1938,7 +1898,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.72367638017559166</v>
+        <v>0.72322344594078092</v>
       </c>
     </row>
     <row r="228">
@@ -1946,7 +1906,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.9239134226843424</v>
+        <v>0.92316967329480104</v>
       </c>
     </row>
     <row r="229">
@@ -1954,7 +1914,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.9285261969413876</v>
+        <v>0.92778183634616296</v>
       </c>
     </row>
     <row r="230">
@@ -1962,7 +1922,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>1.0953127098995088</v>
+        <v>1.0944825835277683</v>
       </c>
     </row>
     <row r="231">
@@ -1970,7 +1930,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>1.1878268751008689</v>
+        <v>1.186567005339445</v>
       </c>
     </row>
     <row r="232">
@@ -1978,7 +1938,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>1.1982042057250109</v>
+        <v>1.196691218672616</v>
       </c>
     </row>
     <row r="233">
@@ -1986,7 +1946,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>1.1704416936450159</v>
+        <v>1.1690703091287642</v>
       </c>
     </row>
     <row r="234">
@@ -1994,7 +1954,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>1.1050739353921304</v>
+        <v>1.1039656649668681</v>
       </c>
     </row>
     <row r="235">
@@ -2002,7 +1962,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0.38283289208863613</v>
+        <v>0.38247389119326364</v>
       </c>
     </row>
     <row r="236">
@@ -2010,7 +1970,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.61571391287506383</v>
+        <v>0.6151019773833748</v>
       </c>
     </row>
     <row r="237">
@@ -2018,7 +1978,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.61630347467016622</v>
+        <v>0.61568872889331006</v>
       </c>
     </row>
     <row r="238">
@@ -2026,7 +1986,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.85730174746268739</v>
+        <v>0.85624594777153262</v>
       </c>
     </row>
     <row r="239">
@@ -2034,7 +1994,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>1.0483101804891046</v>
+        <v>1.0471284182542469</v>
       </c>
     </row>
     <row r="240">
@@ -2042,7 +2002,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1.0531658634582715</v>
+        <v>1.0520313748247963</v>
       </c>
     </row>
     <row r="241">
@@ -2050,7 +2010,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.97971745333225568</v>
+        <v>0.97868534961740972</v>
       </c>
     </row>
     <row r="242">
@@ -2058,7 +2018,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.86676799621650413</v>
+        <v>0.86601181705390851</v>
       </c>
     </row>
     <row r="243">
@@ -2066,7 +2026,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.24278215407087975</v>
+        <v>0.24230008399812772</v>
       </c>
     </row>
     <row r="244">
@@ -2074,7 +2034,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.24321455359587404</v>
+        <v>0.24273227777239342</v>
       </c>
     </row>
     <row r="245">
@@ -2082,7 +2042,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>0.56818957100022793</v>
+        <v>0.5672657361085266</v>
       </c>
     </row>
     <row r="246">
@@ -2090,7 +2050,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.72253116019413755</v>
+        <v>0.72146339559230521</v>
       </c>
     </row>
     <row r="247">
@@ -2098,7 +2058,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0.75102615753579938</v>
+        <v>0.75001515333314583</v>
       </c>
     </row>
     <row r="248">
@@ -2106,7 +2066,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0.73046094071528789</v>
+        <v>0.72974919464445553</v>
       </c>
     </row>
     <row r="249">
@@ -2114,7 +2074,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.41808746120540968</v>
+        <v>0.41735733502328531</v>
       </c>
     </row>
     <row r="250">
@@ -2122,7 +2082,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.49812640830010846</v>
+        <v>0.49767122168076955</v>
       </c>
     </row>
     <row r="251">
@@ -2130,7 +2090,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>-0.012895569482416913</v>
+        <v>-0.010032249212545988</v>
       </c>
     </row>
     <row r="252">
@@ -2138,7 +2098,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.044773885589981494</v>
+        <v>0.047802361145585698</v>
       </c>
     </row>
     <row r="253">
@@ -2146,7 +2106,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0.065168943869247584</v>
+        <v>0.068693659234296822</v>
       </c>
     </row>
     <row r="254">
@@ -2154,7 +2114,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>-0.040142505641726972</v>
+        <v>-0.03866794595757795</v>
       </c>
     </row>
     <row r="255">
@@ -2162,7 +2122,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>0.13686397561168231</v>
+        <v>0.13882728394474056</v>
       </c>
     </row>
     <row r="256">
@@ -2170,7 +2130,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.26497151989535583</v>
+        <v>0.26765879016625171</v>
       </c>
     </row>
     <row r="257">
@@ -2178,7 +2138,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>0.26369095820959265</v>
+        <v>0.26681046464095826</v>
       </c>
     </row>
     <row r="258">
@@ -2186,7 +2146,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.23276038566584242</v>
+        <v>0.23579214852280142</v>
       </c>
     </row>
     <row r="259">
@@ -2194,7 +2154,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.24782116603766915</v>
+        <v>0.25114660910993086</v>
       </c>
     </row>
     <row r="260">
@@ -2202,7 +2162,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.10153025400415763</v>
+        <v>0.1022532974564027</v>
       </c>
     </row>
     <row r="261">
@@ -2210,7 +2170,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>0.234967030944158</v>
+        <v>0.23598639796521098</v>
       </c>
     </row>
     <row r="262">
@@ -2218,7 +2178,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0.36879268370410323</v>
+        <v>0.37059743183353122</v>
       </c>
     </row>
     <row r="263">
@@ -2226,7 +2186,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.47118375498260817</v>
+        <v>0.47370430064475971</v>
       </c>
     </row>
     <row r="264">
@@ -2234,7 +2194,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.45959931881815019</v>
+        <v>0.46209236270659176</v>
       </c>
     </row>
     <row r="265">
@@ -2242,7 +2202,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>0.47676171847609933</v>
+        <v>0.47967153967399634</v>
       </c>
     </row>
     <row r="266">
@@ -2250,7 +2210,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.39534946963316592</v>
+        <v>0.39835586612739038</v>
       </c>
     </row>
     <row r="267">
@@ -2258,7 +2218,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0.14460315594623482</v>
+        <v>0.14450113387319699</v>
       </c>
     </row>
     <row r="268">
@@ -2266,7 +2226,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>0.24370647939889195</v>
+        <v>0.24358533301478602</v>
       </c>
     </row>
     <row r="269">
@@ -2274,7 +2234,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>0.34569145386388561</v>
+        <v>0.34589475893967558</v>
       </c>
     </row>
     <row r="270">
@@ -2282,7 +2242,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.44498403571345846</v>
+        <v>0.44564627058864914</v>
       </c>
     </row>
     <row r="271">
@@ -2290,7 +2250,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.57442942392288576</v>
+        <v>0.57584571393354778</v>
       </c>
     </row>
     <row r="272">
@@ -2298,7 +2258,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.55922155446938071</v>
+        <v>0.56060630837239611</v>
       </c>
     </row>
     <row r="273">
@@ -2306,7 +2266,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.63441616245328625</v>
+        <v>0.63620347585135451</v>
       </c>
     </row>
     <row r="274">
@@ -2314,7 +2274,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.67177312392904553</v>
+        <v>0.67391081120061702</v>
       </c>
     </row>
     <row r="275">
@@ -2322,7 +2282,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.64143342130829029</v>
+        <v>0.64389779225307719</v>
       </c>
     </row>
     <row r="276">
@@ -2330,7 +2290,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>0.33101405061936862</v>
+        <v>0.33014915493807329</v>
       </c>
     </row>
     <row r="277">
@@ -2338,7 +2298,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0.36369581366495402</v>
+        <v>0.36269366289870375</v>
       </c>
     </row>
     <row r="278">
@@ -2346,7 +2306,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.41393912435036084</v>
+        <v>0.41308962425032475</v>
       </c>
     </row>
     <row r="279">
@@ -2354,7 +2314,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.43140227232347117</v>
+        <v>0.43120630126305498</v>
       </c>
     </row>
     <row r="280">
@@ -2362,7 +2322,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.5665280431303813</v>
+        <v>0.56675464737719039</v>
       </c>
     </row>
     <row r="281">
@@ -2370,7 +2330,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>0.56046347776650107</v>
+        <v>0.56073147657190292</v>
       </c>
     </row>
     <row r="282">
@@ -2378,7 +2338,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.74039679750125209</v>
+        <v>0.74132237684069791</v>
       </c>
     </row>
     <row r="283">
@@ -2386,7 +2346,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.86253978954041144</v>
+        <v>0.86383744015683039</v>
       </c>
     </row>
     <row r="284">
@@ -2394,7 +2354,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0.90606044384716966</v>
+        <v>0.90800344828475021</v>
       </c>
     </row>
     <row r="285">
@@ -2402,7 +2362,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0.81280484386868235</v>
+        <v>0.81478237154258482</v>
       </c>
     </row>
     <row r="286">
@@ -2410,7 +2370,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.3738620205631723</v>
+        <v>0.37226289559888248</v>
       </c>
     </row>
     <row r="287">
@@ -2418,7 +2378,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.42733825967979794</v>
+        <v>0.42581688701454168</v>
       </c>
     </row>
     <row r="288">
@@ -2426,7 +2386,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.4908650136849988</v>
+        <v>0.48980902919116198</v>
       </c>
     </row>
     <row r="289">
@@ -2434,7 +2394,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>0.55668952770115643</v>
+        <v>0.55584372539955562</v>
       </c>
     </row>
     <row r="290">
@@ -2442,7 +2402,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>0.66659337283085129</v>
+        <v>0.66593343495932367</v>
       </c>
     </row>
     <row r="291">
@@ -2450,7 +2410,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.70502660587221755</v>
+        <v>0.7044728932546731</v>
       </c>
     </row>
     <row r="292">
@@ -2458,7 +2418,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0.83617631991580998</v>
+        <v>0.83619475100374208</v>
       </c>
     </row>
     <row r="293">
@@ -2466,7 +2426,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0.96411135007064264</v>
+        <v>0.96469124884653523</v>
       </c>
     </row>
     <row r="294">
@@ -2474,7 +2434,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>1.02896362291654</v>
+        <v>1.0302329754804307</v>
       </c>
     </row>
     <row r="295">
@@ -2482,7 +2442,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>1.0305343238932354</v>
+        <v>1.0320390208726162</v>
       </c>
     </row>
     <row r="296">
@@ -2490,7 +2450,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>0.92823080223361243</v>
+        <v>0.92971211776834606</v>
       </c>
     </row>
     <row r="297">
@@ -2498,7 +2458,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.4275427213154907</v>
+        <v>0.42565199474200305</v>
       </c>
     </row>
     <row r="298">
@@ -2506,7 +2466,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.52883681573810082</v>
+        <v>0.52715105798676809</v>
       </c>
     </row>
     <row r="299">
@@ -2514,7 +2474,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>0.62040371309035969</v>
+        <v>0.6190657771721273</v>
       </c>
     </row>
     <row r="300">
@@ -2522,7 +2482,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>0.75311473847506916</v>
+        <v>0.75199364115933387</v>
       </c>
     </row>
     <row r="301">
@@ -2530,7 +2490,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0.85079235609467674</v>
+        <v>0.85011194275024482</v>
       </c>
     </row>
     <row r="302">
@@ -2538,7 +2498,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>0.86772272935383332</v>
+        <v>0.86707269383421892</v>
       </c>
     </row>
     <row r="303">
@@ -2546,7 +2506,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>0.93321774883043107</v>
+        <v>0.93273035467129217</v>
       </c>
     </row>
     <row r="304">
@@ -2554,7 +2514,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>0.9014141650246309</v>
+        <v>0.90113072454436016</v>
       </c>
     </row>
     <row r="305">
@@ -2562,7 +2522,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>1.0679804808405242</v>
+        <v>1.0681813053978755</v>
       </c>
     </row>
     <row r="306">
@@ -2570,7 +2530,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>1.1152817514188846</v>
+        <v>1.1158358473931866</v>
       </c>
     </row>
     <row r="307">
@@ -2578,7 +2538,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>1.0865632800939389</v>
+        <v>1.0871617004414733</v>
       </c>
     </row>
     <row r="308">
@@ -2586,7 +2546,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>0.42779553009135318</v>
+        <v>0.42650966817282376</v>
       </c>
     </row>
     <row r="309">
@@ -2594,7 +2554,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.55800832129161571</v>
+        <v>0.55659601098662925</v>
       </c>
     </row>
     <row r="310">
@@ -2602,7 +2562,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.71893568081905501</v>
+        <v>0.7177142993835588</v>
       </c>
     </row>
     <row r="311">
@@ -2610,7 +2570,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.8986880394973864</v>
+        <v>0.89781871677412073</v>
       </c>
     </row>
     <row r="312">
@@ -2618,7 +2578,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.97766795904450488</v>
+        <v>0.97706704704643865</v>
       </c>
     </row>
     <row r="313">
@@ -2626,7 +2586,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.97559072385722201</v>
+        <v>0.97498398121533192</v>
       </c>
     </row>
     <row r="314">
@@ -2634,7 +2594,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>1.0084844947877356</v>
+        <v>1.0077579437183974</v>
       </c>
     </row>
     <row r="315">
@@ -2642,7 +2602,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>1.0281162600570095</v>
+        <v>1.0274012631024354</v>
       </c>
     </row>
     <row r="316">
@@ -2650,7 +2610,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>1.062111741936725</v>
+        <v>1.0613594042865853</v>
       </c>
     </row>
     <row r="317">
@@ -2658,7 +2618,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>1.1372063584422598</v>
+        <v>1.1365855971197663</v>
       </c>
     </row>
     <row r="318">
@@ -2666,7 +2626,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>1.1536746438493222</v>
+        <v>1.1532534434342023</v>
       </c>
     </row>
     <row r="319">
@@ -2674,7 +2634,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>1.1123472575020266</v>
+        <v>1.1122003976889798</v>
       </c>
     </row>
     <row r="320">
@@ -2682,7 +2642,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>0.40570448897027056</v>
+        <v>0.40439075018734261</v>
       </c>
     </row>
     <row r="321">
@@ -2690,7 +2650,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>0.54139266514079176</v>
+        <v>0.53995819003657852</v>
       </c>
     </row>
     <row r="322">
@@ -2698,7 +2658,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>0.70464204266417663</v>
+        <v>0.70339927775728506</v>
       </c>
     </row>
     <row r="323">
@@ -2706,7 +2666,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>0.88769984267600144</v>
+        <v>0.88680587684765</v>
       </c>
     </row>
     <row r="324">
@@ -2714,7 +2674,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>0.96372793973542992</v>
+        <v>0.9630939830871158</v>
       </c>
     </row>
     <row r="325">
@@ -2722,7 +2682,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>0.961199666033001</v>
+        <v>0.96056296024078658</v>
       </c>
     </row>
     <row r="326">
@@ -2730,7 +2690,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>0.98997713710375135</v>
+        <v>0.98922118871809939</v>
       </c>
     </row>
     <row r="327">
@@ -2738,7 +2698,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>0.99931199405274385</v>
+        <v>0.99855375346025588</v>
       </c>
     </row>
     <row r="328">
@@ -2746,7 +2706,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>1.0229254911136492</v>
+        <v>1.022107325456499</v>
       </c>
     </row>
     <row r="329">
@@ -2754,7 +2714,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>1.1015819419641306</v>
+        <v>1.100888409287555</v>
       </c>
     </row>
     <row r="330">
@@ -2762,7 +2722,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>1.1336672987030132</v>
+        <v>1.1331887902010702</v>
       </c>
     </row>
     <row r="331">
@@ -2770,7 +2730,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>1.1095327893640559</v>
+        <v>1.1093623495524256</v>
       </c>
     </row>
     <row r="332">
@@ -2778,7 +2738,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>0.41254912358503709</v>
+        <v>0.41208676469867639</v>
       </c>
     </row>
     <row r="333">
@@ -2786,7 +2746,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>0.60665426765039998</v>
+        <v>0.60614933869971888</v>
       </c>
     </row>
     <row r="334">
@@ -2794,7 +2754,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>0.81147408790238795</v>
+        <v>0.81101538387439853</v>
       </c>
     </row>
     <row r="335">
@@ -2802,7 +2762,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>0.95493666653736242</v>
+        <v>0.95449328981202097</v>
       </c>
     </row>
     <row r="336">
@@ -2810,7 +2770,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>0.95445765784345127</v>
+        <v>0.95401559849568207</v>
       </c>
     </row>
     <row r="337">
@@ -2818,7 +2778,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>1.047910092961269</v>
+        <v>1.0474189966063567</v>
       </c>
     </row>
     <row r="338">
@@ -2826,7 +2786,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>1.0413951177496108</v>
+        <v>1.0405453073445934</v>
       </c>
     </row>
     <row r="339">
@@ -2834,7 +2794,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>1.0712423021445434</v>
+        <v>1.070036891686962</v>
       </c>
     </row>
     <row r="340">
@@ -2842,7 +2802,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1.1185024209683521</v>
+        <v>1.1172338062462521</v>
       </c>
     </row>
     <row r="341">
@@ -2850,7 +2810,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>1.1517611832984589</v>
+        <v>1.1505660748482787</v>
       </c>
     </row>
     <row r="342">
@@ -2858,7 +2818,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>1.0882117848213566</v>
+        <v>1.0872692337771757</v>
       </c>
     </row>
     <row r="343">
@@ -2866,7 +2826,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>0.139670568221133</v>
+        <v>0.13969083666048449</v>
       </c>
     </row>
     <row r="344">
@@ -2874,7 +2834,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>0.35897672016921939</v>
+        <v>0.35905359580053536</v>
       </c>
     </row>
     <row r="345">
@@ -2882,7 +2842,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>0.59078741346746422</v>
+        <v>0.59074655279756405</v>
       </c>
     </row>
     <row r="346">
@@ -2890,7 +2850,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>0.81564647328747331</v>
+        <v>0.81550781147218931</v>
       </c>
     </row>
     <row r="347">
@@ -2898,7 +2858,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>0.81582316406272215</v>
+        <v>0.81568531537043265</v>
       </c>
     </row>
     <row r="348">
@@ -2906,7 +2866,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>0.96488744872904475</v>
+        <v>0.96443340917421938</v>
       </c>
     </row>
     <row r="349">
@@ -2914,7 +2874,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>1.0332444266197673</v>
+        <v>1.0322537768099282</v>
       </c>
     </row>
     <row r="350">
@@ -2922,7 +2882,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>1.0667775942864341</v>
+        <v>1.0655671208928712</v>
       </c>
     </row>
     <row r="351">
@@ -2930,7 +2890,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>1.069518229752451</v>
+        <v>1.0681169296563344</v>
       </c>
     </row>
     <row r="352">
@@ -2938,7 +2898,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>1.0393088006387952</v>
+        <v>1.0380045896754186</v>
       </c>
     </row>
     <row r="353">
@@ -2946,7 +2906,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>0.92866246979763867</v>
+        <v>0.92754722111088628</v>
       </c>
     </row>
     <row r="354">
@@ -2954,7 +2914,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>-0.27637194891472688</v>
+        <v>-0.27621407674193749</v>
       </c>
     </row>
     <row r="355">
@@ -2962,7 +2922,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>-0.051178130125084362</v>
+        <v>-0.050994133572199195</v>
       </c>
     </row>
     <row r="356">
@@ -2970,7 +2930,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>0.241340109425671</v>
+        <v>0.24146742754500256</v>
       </c>
     </row>
     <row r="357">
@@ -2978,7 +2938,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>0.47442476952169116</v>
+        <v>0.47433778522641995</v>
       </c>
     </row>
     <row r="358">
@@ -2986,7 +2946,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>0.47500876956928711</v>
+        <v>0.47492053075674806</v>
       </c>
     </row>
     <row r="359">
@@ -2994,7 +2954,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>0.73914226390761839</v>
+        <v>0.73883626518787182</v>
       </c>
     </row>
     <row r="360">
@@ -3002,7 +2962,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>0.92319223958021968</v>
+        <v>0.92237492163950974</v>
       </c>
     </row>
     <row r="361">
@@ -3010,7 +2970,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>0.96785662248004267</v>
+        <v>0.96651729627158267</v>
       </c>
     </row>
     <row r="362">
@@ -3018,7 +2978,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>0.92667519003797394</v>
+        <v>0.9254937662938536</v>
       </c>
     </row>
     <row r="363">
@@ -3026,7 +2986,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>0.81941289685373142</v>
+        <v>0.81831438004936585</v>
       </c>
     </row>
     <row r="364">
@@ -3034,7 +2994,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>0.67993065999332725</v>
+        <v>0.67903069298696983</v>
       </c>
     </row>
     <row r="365">
@@ -3042,7 +3002,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>-0.53459695559016884</v>
+        <v>-0.53427342471820438</v>
       </c>
     </row>
     <row r="366">
@@ -3050,7 +3010,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>-0.26220208076923873</v>
+        <v>-0.26220325446644971</v>
       </c>
     </row>
     <row r="367">
@@ -3058,7 +3018,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>0.10678097328965337</v>
+        <v>0.10659829707120527</v>
       </c>
     </row>
     <row r="368">
@@ -3066,7 +3026,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>0.10520640471934646</v>
+        <v>0.10502474604851493</v>
       </c>
     </row>
     <row r="369">
@@ -3074,7 +3034,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>0.45935809297230912</v>
+        <v>0.4587164927895121</v>
       </c>
     </row>
     <row r="370">
@@ -3082,7 +3042,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>0.64207048707232039</v>
+        <v>0.64108519194461211</v>
       </c>
     </row>
     <row r="371">
@@ -3090,7 +3050,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>0.68849390622515494</v>
+        <v>0.68752089729466881</v>
       </c>
     </row>
     <row r="372">
@@ -3098,7 +3058,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>0.68706259533804093</v>
+        <v>0.68624578379135914</v>
       </c>
     </row>
     <row r="373">
@@ -3106,7 +3066,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>0.59464917490787428</v>
+        <v>0.59408798334637514</v>
       </c>
     </row>
     <row r="374">
@@ -3114,7 +3074,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>-0.64708688076053433</v>
+        <v>-0.64712951181526002</v>
       </c>
     </row>
     <row r="375">
@@ -3122,7 +3082,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>-0.25928993947968204</v>
+        <v>-0.25961977141872888</v>
       </c>
     </row>
     <row r="376">
@@ -3130,7 +3090,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>-0.2624490647540394</v>
+        <v>-0.26278002940731365</v>
       </c>
     </row>
     <row r="377">
@@ -3138,7 +3098,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>0.1715061266298728</v>
+        <v>0.17080509934986893</v>
       </c>
     </row>
     <row r="378">
@@ -3146,7 +3106,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>0.4481112611183336</v>
+        <v>0.44758594576888466</v>
       </c>
     </row>
     <row r="379">
@@ -3154,7 +3114,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>0.52141757352096541</v>
+        <v>0.52097842480058609</v>
       </c>
     </row>
     <row r="380">
@@ -3162,7 +3122,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>0.44220712863938272</v>
+        <v>0.44190948710623013</v>
       </c>
     </row>
     <row r="381">
@@ -3170,7 +3130,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>0.29629915991679795</v>
+        <v>0.29604301446169695</v>
       </c>
     </row>
     <row r="382">
@@ -3178,7 +3138,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>-0.50390384603700278</v>
+        <v>-0.50426896144238753</v>
       </c>
     </row>
     <row r="383">
@@ -3186,7 +3146,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>-0.50404433592261899</v>
+        <v>-0.50441057821058466</v>
       </c>
     </row>
     <row r="384">
@@ -3194,7 +3154,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>-0.026532042022757583</v>
+        <v>-0.026942686761167171</v>
       </c>
     </row>
     <row r="385">
@@ -3202,7 +3162,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>0.2391407159902347</v>
+        <v>0.23874324235674796</v>
       </c>
     </row>
     <row r="386">
@@ -3210,7 +3170,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>0.305828636334804</v>
+        <v>0.30583373022112104</v>
       </c>
     </row>
     <row r="387">
@@ -3218,7 +3178,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>0.21775173334921744</v>
+        <v>0.21785578658909574</v>
       </c>
     </row>
     <row r="388">
@@ -3226,7 +3186,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>-0.53025406271851905</v>
+        <v>-0.53035697882535426</v>
       </c>
     </row>
     <row r="389">
@@ -3234,7 +3194,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>-0.32854982752912526</v>
+        <v>-0.32712473632684375</v>
       </c>
     </row>
     <row r="390">
@@ -3242,7 +3202,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>-0.20427930010278431</v>
+        <v>-0.20230553972189511</v>
       </c>
     </row>
     <row r="391">
@@ -3250,7 +3210,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>-0.12742432874959037</v>
+        <v>-0.12482733684974576</v>
       </c>
     </row>
     <row r="392">
@@ -3258,7 +3218,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>-0.16377402369845073</v>
+        <v>-0.16127190148056061</v>
       </c>
     </row>
     <row r="393">
@@ -3266,7 +3226,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>-0.36950216907659794</v>
+        <v>-0.36937873117551545</v>
       </c>
     </row>
     <row r="394">
@@ -3274,7 +3234,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>-0.24788483947675088</v>
+        <v>-0.24723468343962726</v>
       </c>
     </row>
     <row r="395">
@@ -3282,7 +3242,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>-0.12095351169790419</v>
+        <v>-0.11964681960082782</v>
       </c>
     </row>
     <row r="396">
@@ -3290,7 +3250,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>0.014377888501870013</v>
+        <v>0.01646715239581209</v>
       </c>
     </row>
     <row r="397">
@@ -3298,7 +3258,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>-0.0087517348263903508</v>
+        <v>-0.0067049071729650368</v>
       </c>
     </row>
     <row r="398">
@@ -3306,7 +3266,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>0.084784713704353462</v>
+        <v>0.087223871744421352</v>
       </c>
     </row>
     <row r="399">
@@ -3314,7 +3274,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>0.095272587624705682</v>
+        <v>0.097807740984629854</v>
       </c>
     </row>
     <row r="400">
@@ -3322,7 +3282,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>-0.24768367224066873</v>
+        <v>-0.24837343429863007</v>
       </c>
     </row>
     <row r="401">
@@ -3330,7 +3290,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>-0.23099974605079429</v>
+        <v>-0.2314478678784177</v>
       </c>
     </row>
     <row r="402">
@@ -3338,7 +3298,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>-0.15572002206375538</v>
+        <v>-0.15587135415466463</v>
       </c>
     </row>
     <row r="403">
@@ -3346,7 +3306,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>-0.058566160726690603</v>
+        <v>-0.058072143518412445</v>
       </c>
     </row>
     <row r="404">
@@ -3354,7 +3314,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>0.093986191469520239</v>
+        <v>0.09501722539673077</v>
       </c>
     </row>
     <row r="405">
@@ -3362,7 +3322,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>0.070005065433496438</v>
+        <v>0.071025993609287894</v>
       </c>
     </row>
     <row r="406">
@@ -3370,7 +3330,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>0.24790852144514602</v>
+        <v>0.24933854236498418</v>
       </c>
     </row>
     <row r="407">
@@ -3378,7 +3338,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>0.30995846218387701</v>
+        <v>0.3117770800492069</v>
       </c>
     </row>
     <row r="408">
@@ -3386,7 +3346,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>0.32043190192165494</v>
+        <v>0.32234820159105365</v>
       </c>
     </row>
     <row r="409">
@@ -3394,7 +3354,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>-0.07051092910542886</v>
+        <v>-0.071844211804966807</v>
       </c>
     </row>
     <row r="410">
@@ -3402,7 +3362,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>-0.10278103883733801</v>
+        <v>-0.10402825120921615</v>
       </c>
     </row>
     <row r="411">
@@ -3410,7 +3370,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>-0.11996400433954556</v>
+        <v>-0.12085576301374627</v>
       </c>
     </row>
     <row r="412">
@@ -3418,7 +3378,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>-0.096487426121488126</v>
+        <v>-0.09692801532513183</v>
       </c>
     </row>
     <row r="413">
@@ -3426,7 +3386,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>0.1150943620426836</v>
+        <v>0.11530541685098511</v>
       </c>
     </row>
     <row r="414">
@@ -3434,7 +3394,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>0.093330642610734191</v>
+        <v>0.093544304079109797</v>
       </c>
     </row>
     <row r="415">
@@ -3442,7 +3402,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>0.33587069140601311</v>
+        <v>0.33647580409291739</v>
       </c>
     </row>
     <row r="416">
@@ -3450,7 +3410,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>0.50959607617942659</v>
+        <v>0.51077875836997422</v>
       </c>
     </row>
     <row r="417">
@@ -3458,7 +3418,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>0.63256285648068689</v>
+        <v>0.63415601400716815</v>
       </c>
     </row>
     <row r="418">
@@ -3466,7 +3426,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>-0.022910404796903101</v>
+        <v>-0.025018869861984119</v>
       </c>
     </row>
     <row r="419">
@@ -3474,7 +3434,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>-0.041158715328819706</v>
+        <v>-0.043159826434103647</v>
       </c>
     </row>
     <row r="420">
@@ -3482,7 +3442,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>-0.00057066128821178883</v>
+        <v>-0.0020901196393191515</v>
       </c>
     </row>
     <row r="421">
@@ -3490,7 +3450,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>0.042886870332204723</v>
+        <v>0.0419026312917763</v>
       </c>
     </row>
     <row r="422">
@@ -3498,7 +3458,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>0.18848014405018365</v>
+        <v>0.18797857900428594</v>
       </c>
     </row>
     <row r="423">
@@ -3506,7 +3466,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>0.20520359659873397</v>
+        <v>0.20476571353467532</v>
       </c>
     </row>
     <row r="424">
@@ -3514,7 +3474,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>0.39622520718450172</v>
+        <v>0.39610377283678005</v>
       </c>
     </row>
     <row r="425">
@@ -3522,7 +3482,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>0.63176555724855055</v>
+        <v>0.63223266213225726</v>
       </c>
     </row>
     <row r="426">
@@ -3530,7 +3490,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>0.83154253669541689</v>
+        <v>0.83253501999035706</v>
       </c>
     </row>
     <row r="427">
@@ -3538,7 +3498,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>0.78476920457360577</v>
+        <v>0.78595433960317074</v>
       </c>
     </row>
     <row r="428">
@@ -3546,7 +3506,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>0.076476945792193329</v>
+        <v>0.074511696431034044</v>
       </c>
     </row>
     <row r="429">
@@ -3554,7 +3514,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>0.1427637741552055</v>
+        <v>0.14077147016817476</v>
       </c>
     </row>
     <row r="430">
@@ -3562,7 +3522,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>0.22618218501717899</v>
+        <v>0.22456739422222055</v>
       </c>
     </row>
     <row r="431">
@@ -3570,7 +3530,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>0.33870698616228562</v>
+        <v>0.33745493231813434</v>
       </c>
     </row>
     <row r="432">
@@ -3578,7 +3538,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>0.44182751445920554</v>
+        <v>0.4409627613399239</v>
       </c>
     </row>
     <row r="433">
@@ -3586,7 +3546,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>0.44395660286806604</v>
+        <v>0.44310084619422052</v>
       </c>
     </row>
     <row r="434">
@@ -3594,7 +3554,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>0.54012297241695673</v>
+        <v>0.53942828698819356</v>
       </c>
     </row>
     <row r="435">
@@ -3602,7 +3562,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>0.71461462820258792</v>
+        <v>0.71443309046363002</v>
       </c>
     </row>
     <row r="436">
@@ -3610,7 +3570,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>0.84739451813283673</v>
+        <v>0.84765198527069152</v>
       </c>
     </row>
     <row r="437">
@@ -3618,7 +3578,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>0.89155854763443021</v>
+        <v>0.89190165945995026</v>
       </c>
     </row>
     <row r="438">
@@ -3626,7 +3586,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>0.8962752723304851</v>
+        <v>0.89654222168290232</v>
       </c>
     </row>
     <row r="439">
@@ -3634,7 +3594,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>0.13268500858565802</v>
+        <v>0.13124706816075662</v>
       </c>
     </row>
     <row r="440">
@@ -3642,7 +3602,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>0.27355056427750585</v>
+        <v>0.27200469005397826</v>
       </c>
     </row>
     <row r="441">
@@ -3650,7 +3610,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>0.40123696997182623</v>
+        <v>0.39977879703692293</v>
       </c>
     </row>
     <row r="442">
@@ -3658,7 +3618,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>0.57133010081208879</v>
+        <v>0.57043999548623558</v>
       </c>
     </row>
     <row r="443">
@@ -3666,7 +3626,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>0.66580622586644644</v>
+        <v>0.66506537356659556</v>
       </c>
     </row>
     <row r="444">
@@ -3674,7 +3634,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>0.6591198142117678</v>
+        <v>0.65837553405110882</v>
       </c>
     </row>
     <row r="445">
@@ -3682,7 +3642,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>0.74459024299163956</v>
+        <v>0.74391073036669375</v>
       </c>
     </row>
     <row r="446">
@@ -3690,7 +3650,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>0.81316648637510525</v>
+        <v>0.81259017759646579</v>
       </c>
     </row>
     <row r="447">
@@ -3698,7 +3658,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>0.89266849498914003</v>
+        <v>0.89226177524159211</v>
       </c>
     </row>
     <row r="448">
@@ -3706,7 +3666,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>0.92334228996078327</v>
+        <v>0.92276659048838394</v>
       </c>
     </row>
     <row r="449">
@@ -3714,7 +3674,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>0.97083902602422678</v>
+        <v>0.97021142451159481</v>
       </c>
     </row>
     <row r="450">
@@ -3722,7 +3682,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>0.11215856368683023</v>
+        <v>0.11070209804227059</v>
       </c>
     </row>
     <row r="451">
@@ -3730,7 +3690,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>0.25792396985644728</v>
+        <v>0.25635648703216363</v>
       </c>
     </row>
     <row r="452">
@@ -3738,7 +3698,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>0.38735204952472529</v>
+        <v>0.38587530880677823</v>
       </c>
     </row>
     <row r="453">
@@ -3746,7 +3706,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>0.55748904188482806</v>
+        <v>0.55657651383628881</v>
       </c>
     </row>
     <row r="454">
@@ -3754,7 +3714,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>0.64648802464839494</v>
+        <v>0.64571858448470176</v>
       </c>
     </row>
     <row r="455">
@@ -3762,7 +3722,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>0.63575181576399442</v>
+        <v>0.63497699535194863</v>
       </c>
     </row>
     <row r="456">
@@ -3770,7 +3730,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>0.72156986878554963</v>
+        <v>0.72086386548510162</v>
       </c>
     </row>
     <row r="457">
@@ -3778,7 +3738,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>0.79025723220829391</v>
+        <v>0.78964408701331423</v>
       </c>
     </row>
     <row r="458">
@@ -3786,7 +3746,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>0.86635706530448786</v>
+        <v>0.86589948843572395</v>
       </c>
     </row>
     <row r="459">
@@ -3794,7 +3754,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>0.8935825202866704</v>
+        <v>0.89294118468155903</v>
       </c>
     </row>
     <row r="460">
@@ -3802,7 +3762,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>0.95474986099971049</v>
+        <v>0.95408254698456929</v>
       </c>
     </row>
     <row r="461">
@@ -3810,7 +3770,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>0.96386407118615725</v>
+        <v>0.9632020531200407</v>
       </c>
     </row>
     <row r="462">
@@ -3818,7 +3778,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>-0.018285989375622237</v>
+        <v>-0.018884340323719929</v>
       </c>
     </row>
     <row r="463">
@@ -3826,7 +3786,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>0.14516396722014235</v>
+        <v>0.14456801884174592</v>
       </c>
     </row>
     <row r="464">
@@ -3834,7 +3794,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>0.34533017018054035</v>
+        <v>0.34473259452232524</v>
       </c>
     </row>
     <row r="465">
@@ -3842,7 +3802,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>0.52797206739484226</v>
+        <v>0.52746943326247564</v>
       </c>
     </row>
     <row r="466">
@@ -3850,7 +3810,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>0.65841893136565155</v>
+        <v>0.65795940664818786</v>
       </c>
     </row>
     <row r="467">
@@ -3858,7 +3818,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>0.64922673262001707</v>
+        <v>0.64876324718767231</v>
       </c>
     </row>
     <row r="468">
@@ -3866,7 +3826,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>0.77818048996233902</v>
+        <v>0.77757952827796606</v>
       </c>
     </row>
     <row r="469">
@@ -3874,7 +3834,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>0.86294061237539843</v>
+        <v>0.8622783273398047</v>
       </c>
     </row>
     <row r="470">
@@ -3882,7 +3842,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>0.91804154849302266</v>
+        <v>0.91712134508771237</v>
       </c>
     </row>
     <row r="471">
@@ -3890,7 +3850,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>0.93993096891000061</v>
+        <v>0.93874313914313323</v>
       </c>
     </row>
     <row r="472">
@@ -3898,7 +3858,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>0.94754779214249074</v>
+        <v>0.94610678595818909</v>
       </c>
     </row>
     <row r="473">
@@ -3906,7 +3866,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>0.91866915969153917</v>
+        <v>0.91731672543241916</v>
       </c>
     </row>
     <row r="474">
@@ -3914,7 +3874,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>-0.12725612333584274</v>
+        <v>-0.12721615274772208</v>
       </c>
     </row>
     <row r="475">
@@ -3922,7 +3882,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>0.083391278052210596</v>
+        <v>0.083544483074774384</v>
       </c>
     </row>
     <row r="476">
@@ -3930,7 +3890,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>0.83512754565352665</v>
+        <v>0.8382599057380985</v>
       </c>
     </row>
     <row r="477">
@@ -3938,7 +3898,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>0.51746651863540105</v>
+        <v>0.51721130576183494</v>
       </c>
     </row>
     <row r="478">
@@ -3946,7 +3906,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>0.50977007840618738</v>
+        <v>0.50951028554414024</v>
       </c>
     </row>
     <row r="479">
@@ -3954,7 +3914,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>0.68310296873086662</v>
+        <v>0.68268258593191433</v>
       </c>
     </row>
     <row r="480">
@@ -3962,7 +3922,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>0.79324469801066289</v>
+        <v>0.79246694263762019</v>
       </c>
     </row>
     <row r="481">
@@ -3970,7 +3930,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>0.9006966747156695</v>
+        <v>0.89970567578735072</v>
       </c>
     </row>
     <row r="482">
@@ -3978,7 +3938,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>0.91651871112777572</v>
+        <v>0.91513169274083095</v>
       </c>
     </row>
     <row r="483">
@@ -3986,7 +3946,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>0.8522043180422938</v>
+        <v>0.85075864675550816</v>
       </c>
     </row>
     <row r="484">
@@ -3994,7 +3954,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>0.76945678498409775</v>
+        <v>0.76791714676116229</v>
       </c>
     </row>
     <row r="485">
@@ -4002,7 +3962,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>-0.59300344302741614</v>
+        <v>-0.59267526267797832</v>
       </c>
     </row>
     <row r="486">
@@ -4010,7 +3970,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>-0.3618238870307634</v>
+        <v>-0.36144291963414082</v>
       </c>
     </row>
     <row r="487">
@@ -4018,7 +3978,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>-0.086098411333605657</v>
+        <v>-0.085787222751402131</v>
       </c>
     </row>
     <row r="488">
@@ -4026,7 +3986,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>0.16884813303059659</v>
+        <v>0.16875433460456105</v>
       </c>
     </row>
     <row r="489">
@@ -4034,7 +3994,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>0.16645669509058383</v>
+        <v>0.16635877261864382</v>
       </c>
     </row>
     <row r="490">
@@ -4042,7 +4002,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>0.46228537543122072</v>
+        <v>0.46207723045170601</v>
       </c>
     </row>
     <row r="491">
@@ -4050,7 +4010,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>0.67554378501154544</v>
+        <v>0.67503208934346348</v>
       </c>
     </row>
     <row r="492">
@@ -4058,7 +4018,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>0.78574671436360699</v>
+        <v>0.78462421797302739</v>
       </c>
     </row>
     <row r="493">
@@ -4066,7 +4026,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>0.79748939533409424</v>
+        <v>0.79629635162415591</v>
       </c>
     </row>
     <row r="494">
@@ -4074,7 +4034,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>0.66771934126754651</v>
+        <v>0.66643653888581988</v>
       </c>
     </row>
     <row r="495">
@@ -4082,7 +4042,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>0.51530171808351322</v>
+        <v>0.51407539629801946</v>
       </c>
     </row>
     <row r="496">
@@ -4090,7 +4050,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>-1.1423710069315569</v>
+        <v>-1.1417126101691468</v>
       </c>
     </row>
     <row r="497">
@@ -4098,7 +4058,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>-0.91462308468873299</v>
+        <v>-0.91420974840284619</v>
       </c>
     </row>
     <row r="498">
@@ -4106,7 +4066,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>-0.62815229968513464</v>
+        <v>-0.62788228278255731</v>
       </c>
     </row>
     <row r="499">
@@ -4114,7 +4074,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>-0.25743412156703566</v>
+        <v>-0.25761098489574791</v>
       </c>
     </row>
     <row r="500">
@@ -4122,7 +4082,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>-0.26093770802127275</v>
+        <v>-0.26111711929031467</v>
       </c>
     </row>
     <row r="501">
@@ -4130,7 +4090,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>0.17700417494579251</v>
+        <v>0.17660621042443408</v>
       </c>
     </row>
     <row r="502">
@@ -4138,7 +4098,7 @@
         <v>501</v>
       </c>
       <c r="B502">
-        <v>0.45996713932977179</v>
+        <v>0.45921610613768055</v>
       </c>
     </row>
     <row r="503">
@@ -4146,7 +4106,7 @@
         <v>502</v>
       </c>
       <c r="B503">
-        <v>0.5708028487156378</v>
+        <v>0.56983154770103672</v>
       </c>
     </row>
     <row r="504">
@@ -4154,7 +4114,7 @@
         <v>503</v>
       </c>
       <c r="B504">
-        <v>0.60334691539648089</v>
+        <v>0.60253778523250157</v>
       </c>
     </row>
     <row r="505">
@@ -4162,7 +4122,7 @@
         <v>504</v>
       </c>
       <c r="B505">
-        <v>0.47923431039341757</v>
+        <v>0.47847906612831914</v>
       </c>
     </row>
     <row r="506">
@@ -4170,7 +4130,7 @@
         <v>505</v>
       </c>
       <c r="B506">
-        <v>0.27307218854790394</v>
+        <v>0.27219853354695012</v>
       </c>
     </row>
     <row r="507">
@@ -4178,7 +4138,7 @@
         <v>506</v>
       </c>
       <c r="B507">
-        <v>-1.3588981879221884</v>
+        <v>-1.3580222491691256</v>
       </c>
     </row>
     <row r="508">
@@ -4186,7 +4146,7 @@
         <v>507</v>
       </c>
       <c r="B508">
-        <v>-1.1024222658006366</v>
+        <v>-1.1021967938136492</v>
       </c>
     </row>
     <row r="509">
@@ -4194,7 +4154,7 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <v>-0.65084173954944524</v>
+        <v>-0.6507731632010948</v>
       </c>
     </row>
     <row r="510">
@@ -4202,7 +4162,7 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <v>-0.6480461040134704</v>
+        <v>-0.64797366899468356</v>
       </c>
     </row>
     <row r="511">
@@ -4210,7 +4170,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <v>-0.11474554489865502</v>
+        <v>-0.11506597899328887</v>
       </c>
     </row>
     <row r="512">
@@ -4218,7 +4178,7 @@
         <v>511</v>
       </c>
       <c r="B512">
-        <v>0.24476824035493386</v>
+        <v>0.24417741264492512</v>
       </c>
     </row>
     <row r="513">
@@ -4226,7 +4186,7 @@
         <v>512</v>
       </c>
       <c r="B513">
-        <v>0.41145841091256807</v>
+        <v>0.41100157738480714</v>
       </c>
     </row>
     <row r="514">
@@ -4234,7 +4194,7 @@
         <v>513</v>
       </c>
       <c r="B514">
-        <v>0.36904831254559417</v>
+        <v>0.36876921017777931</v>
       </c>
     </row>
     <row r="515">
@@ -4242,7 +4202,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>0.20895440800036713</v>
+        <v>0.20876169691897065</v>
       </c>
     </row>
     <row r="516">
@@ -4250,7 +4210,7 @@
         <v>515</v>
       </c>
       <c r="B516">
-        <v>-1.6395279918564456</v>
+        <v>-1.6389086988133941</v>
       </c>
     </row>
     <row r="517">
@@ -4258,7 +4218,7 @@
         <v>516</v>
       </c>
       <c r="B517">
-        <v>-1.5019737132927173</v>
+        <v>-1.5018181887040922</v>
       </c>
     </row>
     <row r="518">
@@ -4266,7 +4226,7 @@
         <v>517</v>
       </c>
       <c r="B518">
-        <v>-0.9894274947155326</v>
+        <v>-0.98965645048249129</v>
       </c>
     </row>
     <row r="519">
@@ -4274,7 +4234,7 @@
         <v>518</v>
       </c>
       <c r="B519">
-        <v>-0.98720878335015938</v>
+        <v>-0.98743470186374405</v>
       </c>
     </row>
     <row r="520">
@@ -4282,7 +4242,7 @@
         <v>519</v>
       </c>
       <c r="B520">
-        <v>-0.31163124025655831</v>
+        <v>-0.31191005946883188</v>
       </c>
     </row>
     <row r="521">
@@ -4290,7 +4250,7 @@
         <v>520</v>
       </c>
       <c r="B521">
-        <v>0.090001188515879432</v>
+        <v>0.08978486978008958</v>
       </c>
     </row>
     <row r="522">
@@ -4298,7 +4258,7 @@
         <v>521</v>
       </c>
       <c r="B522">
-        <v>0.28304240319916291</v>
+        <v>0.2831652119810279</v>
       </c>
     </row>
     <row r="523">
@@ -4306,7 +4266,7 @@
         <v>522</v>
       </c>
       <c r="B523">
-        <v>0.17429475773396702</v>
+        <v>0.17458380558938805</v>
       </c>
     </row>
     <row r="524">
@@ -4314,7 +4274,7 @@
         <v>523</v>
       </c>
       <c r="B524">
-        <v>-1.4816505973047833</v>
+        <v>-1.4812441877027431</v>
       </c>
     </row>
     <row r="525">
@@ -4322,7 +4282,7 @@
         <v>524</v>
       </c>
       <c r="B525">
-        <v>-0.97624487923156356</v>
+        <v>-0.97618335177375359</v>
       </c>
     </row>
     <row r="526">
@@ -4330,7 +4290,7 @@
         <v>525</v>
       </c>
       <c r="B526">
-        <v>-0.97419885107442594</v>
+        <v>-0.97413416977633327</v>
       </c>
     </row>
     <row r="527">
@@ -4338,7 +4298,7 @@
         <v>526</v>
       </c>
       <c r="B527">
-        <v>-0.99395656443612335</v>
+        <v>-0.99390793554125711</v>
       </c>
     </row>
     <row r="528">
@@ -4346,7 +4306,7 @@
         <v>527</v>
       </c>
       <c r="B528">
-        <v>-0.99478394963546879</v>
+        <v>-0.99473478475361832</v>
       </c>
     </row>
     <row r="529">
@@ -4354,7 +4314,7 @@
         <v>528</v>
       </c>
       <c r="B529">
-        <v>-0.66170077675707983</v>
+        <v>-0.6603554243661115</v>
       </c>
     </row>
     <row r="530">
@@ -4362,7 +4322,7 @@
         <v>529</v>
       </c>
       <c r="B530">
-        <v>-0.53340639091769892</v>
+        <v>-0.53144775601989414</v>
       </c>
     </row>
     <row r="531">
@@ -4370,7 +4330,7 @@
         <v>530</v>
       </c>
       <c r="B531">
-        <v>-0.55471866411345649</v>
+        <v>-0.5528123483682218</v>
       </c>
     </row>
     <row r="532">
@@ -4378,7 +4338,7 @@
         <v>531</v>
       </c>
       <c r="B532">
-        <v>-0.74473814500782587</v>
+        <v>-0.74457992372939208</v>
       </c>
     </row>
     <row r="533">
@@ -4386,7 +4346,7 @@
         <v>532</v>
       </c>
       <c r="B533">
-        <v>-0.58676938863881689</v>
+        <v>-0.58593001803128497</v>
       </c>
     </row>
     <row r="534">
@@ -4394,7 +4354,7 @@
         <v>533</v>
       </c>
       <c r="B534">
-        <v>-0.41529726456639521</v>
+        <v>-0.41366043071840913</v>
       </c>
     </row>
     <row r="535">
@@ -4402,7 +4362,7 @@
         <v>534</v>
       </c>
       <c r="B535">
-        <v>-0.45644472708070172</v>
+        <v>-0.45486686783120522</v>
       </c>
     </row>
     <row r="536">
@@ -4410,7 +4370,7 @@
         <v>535</v>
       </c>
       <c r="B536">
-        <v>-0.38662694658063596</v>
+        <v>-0.38456586390326836</v>
       </c>
     </row>
     <row r="537">
@@ -4418,7 +4378,7 @@
         <v>536</v>
       </c>
       <c r="B537">
-        <v>-0.68626173970610471</v>
+        <v>-0.6873092662774607</v>
       </c>
     </row>
     <row r="538">
@@ -4426,7 +4386,7 @@
         <v>537</v>
       </c>
       <c r="B538">
-        <v>-0.68528486987109849</v>
+        <v>-0.68588760046243702</v>
       </c>
     </row>
     <row r="539">
@@ -4434,7 +4394,7 @@
         <v>538</v>
       </c>
       <c r="B539">
-        <v>-0.56720981236604928</v>
+        <v>-0.56731481200475586</v>
       </c>
     </row>
     <row r="540">
@@ -4442,7 +4402,7 @@
         <v>539</v>
       </c>
       <c r="B540">
-        <v>-0.39485163392436606</v>
+        <v>-0.39435598598028038</v>
       </c>
     </row>
     <row r="541">
@@ -4450,7 +4410,7 @@
         <v>540</v>
       </c>
       <c r="B541">
-        <v>-0.3959268040264356</v>
+        <v>-0.39538038117423641</v>
       </c>
     </row>
     <row r="542">
@@ -4458,7 +4418,7 @@
         <v>541</v>
       </c>
       <c r="B542">
-        <v>-0.2685388682790561</v>
+        <v>-0.26741917204539734</v>
       </c>
     </row>
     <row r="543">
@@ -4466,7 +4426,7 @@
         <v>542</v>
       </c>
       <c r="B543">
-        <v>-0.11412083498643015</v>
+        <v>-0.11292597318325003</v>
       </c>
     </row>
     <row r="544">
@@ -4474,7 +4434,7 @@
         <v>543</v>
       </c>
       <c r="B544">
-        <v>-0.61637172265791973</v>
+        <v>-0.61821708465469216</v>
       </c>
     </row>
     <row r="545">
@@ -4482,7 +4442,7 @@
         <v>544</v>
       </c>
       <c r="B545">
-        <v>-0.68805174740438446</v>
+        <v>-0.68935363344935063</v>
       </c>
     </row>
     <row r="546">
@@ -4490,7 +4450,7 @@
         <v>545</v>
       </c>
       <c r="B546">
-        <v>-0.84633555789092518</v>
+        <v>-0.84257810760285912</v>
       </c>
     </row>
     <row r="547">
@@ -4498,7 +4458,7 @@
         <v>546</v>
       </c>
       <c r="B547">
-        <v>-0.40793815114761756</v>
+        <v>-0.40812215674561009</v>
       </c>
     </row>
     <row r="548">
@@ -4506,7 +4466,7 @@
         <v>547</v>
       </c>
       <c r="B548">
-        <v>-0.44040738797675216</v>
+        <v>-0.44060632361323981</v>
       </c>
     </row>
     <row r="549">
@@ -4514,7 +4474,7 @@
         <v>548</v>
       </c>
       <c r="B549">
-        <v>-0.21797037720336992</v>
+        <v>-0.21771966704231091</v>
       </c>
     </row>
     <row r="550">
@@ -4522,7 +4482,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>0.059175541317425369</v>
+        <v>0.060048013567735183</v>
       </c>
     </row>
     <row r="551">
@@ -4530,7 +4490,7 @@
         <v>550</v>
       </c>
       <c r="B551">
-        <v>0.23624261709353689</v>
+        <v>0.23749598585079995</v>
       </c>
     </row>
     <row r="552">
@@ -4538,7 +4498,7 @@
         <v>551</v>
       </c>
       <c r="B552">
-        <v>-0.50814917313168062</v>
+        <v>-0.51052440758302342</v>
       </c>
     </row>
     <row r="553">
@@ -4546,7 +4506,7 @@
         <v>552</v>
       </c>
       <c r="B553">
-        <v>-0.56607978301570316</v>
+        <v>-0.56833497247841203</v>
       </c>
     </row>
     <row r="554">
@@ -4554,7 +4514,7 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <v>-0.60035184099622418</v>
+        <v>-0.60224077057604708</v>
       </c>
     </row>
     <row r="555">
@@ -4562,7 +4522,7 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <v>-0.53988711777567966</v>
+        <v>-0.54115037178384784</v>
       </c>
     </row>
     <row r="556">
@@ -4570,7 +4530,7 @@
         <v>555</v>
       </c>
       <c r="B556">
-        <v>-0.38245415304163882</v>
+        <v>-0.38322070766632071</v>
       </c>
     </row>
     <row r="557">
@@ -4578,7 +4538,7 @@
         <v>556</v>
       </c>
       <c r="B557">
-        <v>-0.39431188781635529</v>
+        <v>-0.39508082088329932</v>
       </c>
     </row>
     <row r="558">
@@ -4586,7 +4546,7 @@
         <v>557</v>
       </c>
       <c r="B558">
-        <v>-0.16076534528774378</v>
+        <v>-0.16102884981118332</v>
       </c>
     </row>
     <row r="559">
@@ -4594,7 +4554,7 @@
         <v>558</v>
       </c>
       <c r="B559">
-        <v>0.16298901290974971</v>
+        <v>0.16335675134095806</v>
       </c>
     </row>
     <row r="560">
@@ -4602,7 +4562,7 @@
         <v>559</v>
       </c>
       <c r="B560">
-        <v>0.42884110623858351</v>
+        <v>0.42947569913510919</v>
       </c>
     </row>
     <row r="561">
@@ -4610,7 +4570,7 @@
         <v>560</v>
       </c>
       <c r="B561">
-        <v>-0.35712491099737353</v>
+        <v>-0.35916454650326463</v>
       </c>
     </row>
     <row r="562">
@@ -4618,7 +4578,7 @@
         <v>561</v>
       </c>
       <c r="B562">
-        <v>-0.35300410781441333</v>
+        <v>-0.35514780752502173</v>
       </c>
     </row>
     <row r="563">
@@ -4626,7 +4586,7 @@
         <v>562</v>
       </c>
       <c r="B563">
-        <v>-0.34311721302408671</v>
+        <v>-0.34508145153935715</v>
       </c>
     </row>
     <row r="564">
@@ -4634,7 +4594,7 @@
         <v>563</v>
       </c>
       <c r="B564">
-        <v>-0.24846843878996949</v>
+        <v>-0.25008466424494724</v>
       </c>
     </row>
     <row r="565">
@@ -4642,7 +4602,7 @@
         <v>564</v>
       </c>
       <c r="B565">
-        <v>-0.13987047691193613</v>
+        <v>-0.14104059114342785</v>
       </c>
     </row>
     <row r="566">
@@ -4650,7 +4610,7 @@
         <v>565</v>
       </c>
       <c r="B566">
-        <v>-0.16145929912640433</v>
+        <v>-0.16264442906784829</v>
       </c>
     </row>
     <row r="567">
@@ -4658,7 +4618,7 @@
         <v>566</v>
       </c>
       <c r="B567">
-        <v>0.037518274392278617</v>
+        <v>0.036886647754252745</v>
       </c>
     </row>
     <row r="568">
@@ -4666,7 +4626,7 @@
         <v>567</v>
       </c>
       <c r="B568">
-        <v>0.30566191747119942</v>
+        <v>0.30542025707547815</v>
       </c>
     </row>
     <row r="569">
@@ -4674,7 +4634,7 @@
         <v>568</v>
       </c>
       <c r="B569">
-        <v>0.5310824442797587</v>
+        <v>0.53122086023655402</v>
       </c>
     </row>
     <row r="570">
@@ -4682,7 +4642,7 @@
         <v>569</v>
       </c>
       <c r="B570">
-        <v>0.6351537840391217</v>
+        <v>0.6352959112734422</v>
       </c>
     </row>
     <row r="571">
@@ -4690,7 +4650,7 @@
         <v>570</v>
       </c>
       <c r="B571">
-        <v>-0.24752628850488723</v>
+        <v>-0.25183050472554469</v>
       </c>
     </row>
     <row r="572">
@@ -4698,7 +4658,7 @@
         <v>571</v>
       </c>
       <c r="B572">
-        <v>-0.1694067352564495</v>
+        <v>-0.17071878717094852</v>
       </c>
     </row>
     <row r="573">
@@ -4706,7 +4666,7 @@
         <v>572</v>
       </c>
       <c r="B573">
-        <v>-0.10990722420527359</v>
+        <v>-0.11161969259941078</v>
       </c>
     </row>
     <row r="574">
@@ -4714,7 +4674,7 @@
         <v>573</v>
       </c>
       <c r="B574">
-        <v>-0.029906159842118293</v>
+        <v>-0.031356294075168406</v>
       </c>
     </row>
     <row r="575">
@@ -4722,7 +4682,7 @@
         <v>574</v>
       </c>
       <c r="B575">
-        <v>0.10628872060799086</v>
+        <v>0.1052571468615538</v>
       </c>
     </row>
     <row r="576">
@@ -4730,7 +4690,7 @@
         <v>575</v>
       </c>
       <c r="B576">
-        <v>0.09125052928624143</v>
+        <v>0.090206929011553125</v>
       </c>
     </row>
     <row r="577">
@@ -4738,7 +4698,7 @@
         <v>576</v>
       </c>
       <c r="B577">
-        <v>0.2697282935328485</v>
+        <v>0.26907148529512903</v>
       </c>
     </row>
     <row r="578">
@@ -4746,7 +4706,7 @@
         <v>577</v>
       </c>
       <c r="B578">
-        <v>0.48600289031227084</v>
+        <v>0.48555816435772103</v>
       </c>
     </row>
     <row r="579">
@@ -4754,7 +4714,7 @@
         <v>578</v>
       </c>
       <c r="B579">
-        <v>0.64884387545146205</v>
+        <v>0.64844727441605354</v>
       </c>
     </row>
     <row r="580">
@@ -4762,7 +4722,7 @@
         <v>579</v>
       </c>
       <c r="B580">
-        <v>0.6828388452255123</v>
+        <v>0.68225099515553334</v>
       </c>
     </row>
     <row r="581">
@@ -4770,7 +4730,7 @@
         <v>580</v>
       </c>
       <c r="B581">
-        <v>0.75589268216088168</v>
+        <v>0.75510003568879047</v>
       </c>
     </row>
     <row r="582">
@@ -4778,7 +4738,7 @@
         <v>581</v>
       </c>
       <c r="B582">
-        <v>-0.27380839612805619</v>
+        <v>-0.27812933281137359</v>
       </c>
     </row>
     <row r="583">
@@ -4786,7 +4746,7 @@
         <v>582</v>
       </c>
       <c r="B583">
-        <v>-0.19585590100247396</v>
+        <v>-0.19718929260008555</v>
       </c>
     </row>
     <row r="584">
@@ -4794,7 +4754,7 @@
         <v>583</v>
       </c>
       <c r="B584">
-        <v>-0.13447237073346111</v>
+        <v>-0.13620874296691607</v>
       </c>
     </row>
     <row r="585">
@@ -4802,7 +4762,7 @@
         <v>584</v>
       </c>
       <c r="B585">
-        <v>-0.057881993780521453</v>
+        <v>-0.059361104042689905</v>
       </c>
     </row>
     <row r="586">
@@ -4810,7 +4770,7 @@
         <v>585</v>
       </c>
       <c r="B586">
-        <v>0.082827354960735594</v>
+        <v>0.081767536262702417</v>
       </c>
     </row>
     <row r="587">
@@ -4818,7 +4778,7 @@
         <v>586</v>
       </c>
       <c r="B587">
-        <v>0.06626892246861614</v>
+        <v>0.065199606699674673</v>
       </c>
     </row>
     <row r="588">
@@ -4826,7 +4786,7 @@
         <v>587</v>
       </c>
       <c r="B588">
-        <v>0.24600599586249033</v>
+        <v>0.24532906881410446</v>
       </c>
     </row>
     <row r="589">
@@ -4834,7 +4794,7 @@
         <v>588</v>
       </c>
       <c r="B589">
-        <v>0.47008790965545921</v>
+        <v>0.46962470239846005</v>
       </c>
     </row>
     <row r="590">
@@ -4842,7 +4802,7 @@
         <v>589</v>
       </c>
       <c r="B590">
-        <v>0.62465398955945117</v>
+        <v>0.62421680747868968</v>
       </c>
     </row>
     <row r="591">
@@ -4850,7 +4810,7 @@
         <v>590</v>
       </c>
       <c r="B591">
-        <v>0.66080092847320893</v>
+        <v>0.66016940510724875</v>
       </c>
     </row>
     <row r="592">
@@ -4858,7 +4818,7 @@
         <v>591</v>
       </c>
       <c r="B592">
-        <v>0.74970283737264243</v>
+        <v>0.74889380699115826</v>
       </c>
     </row>
     <row r="593">
@@ -4866,7 +4826,7 @@
         <v>592</v>
       </c>
       <c r="B593">
-        <v>-0.39462870747761652</v>
+        <v>-0.39518456501449883</v>
       </c>
     </row>
     <row r="594">
@@ -4874,7 +4834,7 @@
         <v>593</v>
       </c>
       <c r="B594">
-        <v>-0.29082801261636254</v>
+        <v>-0.29140203812011445</v>
       </c>
     </row>
     <row r="595">
@@ -4882,7 +4842,7 @@
         <v>594</v>
       </c>
       <c r="B595">
-        <v>-0.15562274735866882</v>
+        <v>-0.15656138167397055</v>
       </c>
     </row>
     <row r="596">
@@ -4890,7 +4850,7 @@
         <v>595</v>
       </c>
       <c r="B596">
-        <v>0.36862225036209484</v>
+        <v>0.36954003236416105</v>
       </c>
     </row>
     <row r="597">
@@ -4898,7 +4858,7 @@
         <v>596</v>
       </c>
       <c r="B597">
-        <v>0.15682830082136459</v>
+        <v>0.15638963488108404</v>
       </c>
     </row>
     <row r="598">
@@ -4906,7 +4866,7 @@
         <v>597</v>
       </c>
       <c r="B598">
-        <v>0.15132117654609564</v>
+        <v>0.15088204311657913</v>
       </c>
     </row>
     <row r="599">
@@ -4914,7 +4874,7 @@
         <v>598</v>
       </c>
       <c r="B599">
-        <v>0.32873026019816853</v>
+        <v>0.32828526861031115</v>
       </c>
     </row>
     <row r="600">
@@ -4922,7 +4882,7 @@
         <v>599</v>
       </c>
       <c r="B600">
-        <v>0.52265865787229948</v>
+        <v>0.5220766672867807</v>
       </c>
     </row>
     <row r="601">
@@ -4930,7 +4890,7 @@
         <v>600</v>
       </c>
       <c r="B601">
-        <v>0.66515503977763812</v>
+        <v>0.66438660899499968</v>
       </c>
     </row>
     <row r="602">
@@ -4938,7 +4898,7 @@
         <v>601</v>
       </c>
       <c r="B602">
-        <v>0.65850888389729434</v>
+        <v>0.65723771409387954</v>
       </c>
     </row>
     <row r="603">
@@ -4946,7 +4906,7 @@
         <v>602</v>
       </c>
       <c r="B603">
-        <v>0.692359562029916</v>
+        <v>0.69087501701780274</v>
       </c>
     </row>
     <row r="604">
@@ -4954,7 +4914,7 @@
         <v>603</v>
       </c>
       <c r="B604">
-        <v>-0.64771177397430091</v>
+        <v>-0.64757264978767681</v>
       </c>
     </row>
     <row r="605">
@@ -4962,7 +4922,7 @@
         <v>604</v>
       </c>
       <c r="B605">
-        <v>-0.57271813799150295</v>
+        <v>-0.57287660994832357</v>
       </c>
     </row>
     <row r="606">
@@ -4970,7 +4930,7 @@
         <v>605</v>
       </c>
       <c r="B606">
-        <v>-0.41607216409566306</v>
+        <v>-0.41636282277999936</v>
       </c>
     </row>
     <row r="607">
@@ -4978,7 +4938,7 @@
         <v>606</v>
       </c>
       <c r="B607">
-        <v>-0.21847068968859679</v>
+        <v>-0.21857874787292636</v>
       </c>
     </row>
     <row r="608">
@@ -4986,7 +4946,7 @@
         <v>607</v>
       </c>
       <c r="B608">
-        <v>0.010701480289254661</v>
+        <v>0.010623995034466214</v>
       </c>
     </row>
     <row r="609">
@@ -4994,7 +4954,7 @@
         <v>608</v>
       </c>
       <c r="B609">
-        <v>0.010765555675773916</v>
+        <v>0.010691907666448253</v>
       </c>
     </row>
     <row r="610">
@@ -5002,7 +4962,7 @@
         <v>609</v>
       </c>
       <c r="B610">
-        <v>0.27242112230553567</v>
+        <v>0.2722279773481906</v>
       </c>
     </row>
     <row r="611">
@@ -5010,7 +4970,7 @@
         <v>610</v>
       </c>
       <c r="B611">
-        <v>0.45929884469442639</v>
+        <v>0.45863995809326957</v>
       </c>
     </row>
     <row r="612">
@@ -5018,7 +4978,7 @@
         <v>611</v>
       </c>
       <c r="B612">
-        <v>0.61727649690161446</v>
+        <v>0.61650318205446653</v>
       </c>
     </row>
     <row r="613">
@@ -5026,7 +4986,7 @@
         <v>612</v>
       </c>
       <c r="B613">
-        <v>0.64583952789381815</v>
+        <v>0.64457259611639783</v>
       </c>
     </row>
     <row r="614">
@@ -5034,7 +4994,7 @@
         <v>613</v>
       </c>
       <c r="B614">
-        <v>0.64763748258731813</v>
+        <v>0.64605230037143213</v>
       </c>
     </row>
     <row r="615">
@@ -5042,7 +5002,7 @@
         <v>614</v>
       </c>
       <c r="B615">
-        <v>-1.1504674649044437</v>
+        <v>-1.1498944034204188</v>
       </c>
     </row>
     <row r="616">
@@ -5050,7 +5010,7 @@
         <v>615</v>
       </c>
       <c r="B616">
-        <v>-1.056874226206902</v>
+        <v>-1.0565594753165848</v>
       </c>
     </row>
     <row r="617">
@@ -5058,7 +5018,7 @@
         <v>616</v>
       </c>
       <c r="B617">
-        <v>-0.87129056924047921</v>
+        <v>-0.87103899035372545</v>
       </c>
     </row>
     <row r="618">
@@ -5066,7 +5026,7 @@
         <v>617</v>
       </c>
       <c r="B618">
-        <v>-0.60638976849101323</v>
+        <v>-0.60605826344216929</v>
       </c>
     </row>
     <row r="619">
@@ -5074,7 +5034,7 @@
         <v>618</v>
       </c>
       <c r="B619">
-        <v>-0.30282636006412206</v>
+        <v>-0.30281246646342125</v>
       </c>
     </row>
     <row r="620">
@@ -5082,7 +5042,7 @@
         <v>619</v>
       </c>
       <c r="B620">
-        <v>-0.30255912246943695</v>
+        <v>-0.30254547878828131</v>
       </c>
     </row>
     <row r="621">
@@ -5090,7 +5050,7 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <v>0.053364338476837851</v>
+        <v>0.053336098828601505</v>
       </c>
     </row>
     <row r="622">
@@ -5098,7 +5058,7 @@
         <v>621</v>
       </c>
       <c r="B622">
-        <v>0.32742135171582654</v>
+        <v>0.32697204251469614</v>
       </c>
     </row>
     <row r="623">
@@ -5106,7 +5066,7 @@
         <v>622</v>
       </c>
       <c r="B623">
-        <v>0.48206072341240769</v>
+        <v>0.48111847566247223</v>
       </c>
     </row>
     <row r="624">
@@ -5114,7 +5074,7 @@
         <v>623</v>
       </c>
       <c r="B624">
-        <v>0.56900742202656196</v>
+        <v>0.56776072147046308</v>
       </c>
     </row>
     <row r="625">
@@ -5122,7 +5082,7 @@
         <v>624</v>
       </c>
       <c r="B625">
-        <v>0.52063151653005724</v>
+        <v>0.519380313665883</v>
       </c>
     </row>
     <row r="626">
@@ -5130,7 +5090,7 @@
         <v>625</v>
       </c>
       <c r="B626">
-        <v>-1.5399306614129897</v>
+        <v>-1.5391334676662982</v>
       </c>
     </row>
     <row r="627">
@@ -5138,7 +5098,7 @@
         <v>626</v>
       </c>
       <c r="B627">
-        <v>-1.3821511272847404</v>
+        <v>-1.3815940290905271</v>
       </c>
     </row>
     <row r="628">
@@ -5146,7 +5106,7 @@
         <v>627</v>
       </c>
       <c r="B628">
-        <v>-1.0879539797516335</v>
+        <v>-1.08749877155466</v>
       </c>
     </row>
     <row r="629">
@@ -5154,7 +5114,7 @@
         <v>628</v>
       </c>
       <c r="B629">
-        <v>-0.70573169610073949</v>
+        <v>-0.70565496061052624</v>
       </c>
     </row>
     <row r="630">
@@ -5162,7 +5122,7 @@
         <v>629</v>
       </c>
       <c r="B630">
-        <v>-0.70754626323450798</v>
+        <v>-0.70747213575563572</v>
       </c>
     </row>
     <row r="631">
@@ -5170,7 +5130,7 @@
         <v>630</v>
       </c>
       <c r="B631">
-        <v>-0.22749205595506655</v>
+        <v>-0.22751053864579007</v>
       </c>
     </row>
     <row r="632">
@@ -5178,7 +5138,7 @@
         <v>631</v>
       </c>
       <c r="B632">
-        <v>0.10970693163830562</v>
+        <v>0.10915755584647234</v>
       </c>
     </row>
     <row r="633">
@@ -5186,7 +5146,7 @@
         <v>632</v>
       </c>
       <c r="B633">
-        <v>0.30568694934912288</v>
+        <v>0.30490974548887473</v>
       </c>
     </row>
     <row r="634">
@@ -5194,7 +5154,7 @@
         <v>633</v>
       </c>
       <c r="B634">
-        <v>0.3380209075608574</v>
+        <v>0.33727191984004656</v>
       </c>
     </row>
     <row r="635">
@@ -5202,7 +5162,7 @@
         <v>634</v>
       </c>
       <c r="B635">
-        <v>0.30644116709593977</v>
+        <v>0.30561695212782042</v>
       </c>
     </row>
     <row r="636">
@@ -5210,7 +5170,7 @@
         <v>635</v>
       </c>
       <c r="B636">
-        <v>-1.9026464850297724</v>
+        <v>-1.9015542457575068</v>
       </c>
     </row>
     <row r="637">
@@ -5218,7 +5178,7 @@
         <v>636</v>
       </c>
       <c r="B637">
-        <v>-1.7821588462563669</v>
+        <v>-1.7810949682237787</v>
       </c>
     </row>
     <row r="638">
@@ -5226,7 +5186,7 @@
         <v>637</v>
       </c>
       <c r="B638">
-        <v>-1.5000081365928633</v>
+        <v>-1.4994254118977051</v>
       </c>
     </row>
     <row r="639">
@@ -5234,7 +5194,7 @@
         <v>638</v>
       </c>
       <c r="B639">
-        <v>-1.062629183218216</v>
+        <v>-1.0623439501719434</v>
       </c>
     </row>
     <row r="640">
@@ -5242,7 +5202,7 @@
         <v>639</v>
       </c>
       <c r="B640">
-        <v>-1.0612275723623346</v>
+        <v>-1.06094220717564</v>
       </c>
     </row>
     <row r="641">
@@ -5250,7 +5210,7 @@
         <v>640</v>
       </c>
       <c r="B641">
-        <v>-0.490756773870406</v>
+        <v>-0.49074150082104595</v>
       </c>
     </row>
     <row r="642">
@@ -5258,7 +5218,7 @@
         <v>641</v>
       </c>
       <c r="B642">
-        <v>-0.028224601194337097</v>
+        <v>-0.028360670234379517</v>
       </c>
     </row>
     <row r="643">
@@ -5266,7 +5226,7 @@
         <v>642</v>
       </c>
       <c r="B643">
-        <v>0.1696435413442163</v>
+        <v>0.16935559959384422</v>
       </c>
     </row>
     <row r="644">
@@ -5274,7 +5234,7 @@
         <v>643</v>
       </c>
       <c r="B644">
-        <v>0.19351387934144909</v>
+        <v>0.19309963017120693</v>
       </c>
     </row>
     <row r="645">
@@ -5282,7 +5242,7 @@
         <v>644</v>
       </c>
       <c r="B645">
-        <v>0.11470939578303664</v>
+        <v>0.11435419703039874</v>
       </c>
     </row>
     <row r="646">
@@ -5290,7 +5250,7 @@
         <v>645</v>
       </c>
       <c r="B646">
-        <v>-2.0957595639815199</v>
+        <v>-2.0941994462240037</v>
       </c>
     </row>
     <row r="647">
@@ -5298,7 +5258,7 @@
         <v>646</v>
       </c>
       <c r="B647">
-        <v>-2.0103687728844553</v>
+        <v>-2.009235619346621</v>
       </c>
     </row>
     <row r="648">
@@ -5306,7 +5266,7 @@
         <v>647</v>
       </c>
       <c r="B648">
-        <v>-1.8210385984402928</v>
+        <v>-1.8202484443661651</v>
       </c>
     </row>
     <row r="649">
@@ -5314,7 +5274,7 @@
         <v>648</v>
       </c>
       <c r="B649">
-        <v>-1.3379660191879457</v>
+        <v>-1.3375506521139724</v>
       </c>
     </row>
     <row r="650">
@@ -5322,7 +5282,7 @@
         <v>649</v>
       </c>
       <c r="B650">
-        <v>-1.3420857946472011</v>
+        <v>-1.3416728048270234</v>
       </c>
     </row>
     <row r="651">
@@ -5330,7 +5290,7 @@
         <v>650</v>
       </c>
       <c r="B651">
-        <v>-0.68445930483610917</v>
+        <v>-0.68427731850597151</v>
       </c>
     </row>
     <row r="652">
@@ -5338,7 +5298,7 @@
         <v>651</v>
       </c>
       <c r="B652">
-        <v>-0.2097409620171552</v>
+        <v>-0.20952904341937881</v>
       </c>
     </row>
     <row r="653">
@@ -5346,7 +5306,7 @@
         <v>652</v>
       </c>
       <c r="B653">
-        <v>0.031709942225720995</v>
+        <v>0.032134501423847682</v>
       </c>
     </row>
     <row r="654">
@@ -5354,7 +5314,7 @@
         <v>653</v>
       </c>
       <c r="B654">
-        <v>0.041801136348745757</v>
+        <v>0.042088500819955604</v>
       </c>
     </row>
     <row r="655">
@@ -5362,7 +5322,7 @@
         <v>654</v>
       </c>
       <c r="B655">
-        <v>-1.9903084614103586</v>
+        <v>-1.9889197966373082</v>
       </c>
     </row>
     <row r="656">
@@ -5370,7 +5330,7 @@
         <v>655</v>
       </c>
       <c r="B656">
-        <v>-1.7706345970599944</v>
+        <v>-1.76965926276372</v>
       </c>
     </row>
     <row r="657">
@@ -5378,7 +5338,7 @@
         <v>656</v>
       </c>
       <c r="B657">
-        <v>-1.2755467402436718</v>
+        <v>-1.2748686357242305</v>
       </c>
     </row>
     <row r="658">
@@ -5386,7 +5346,7 @@
         <v>657</v>
       </c>
       <c r="B658">
-        <v>-1.2781183765408919</v>
+        <v>-1.2774398425439837</v>
       </c>
     </row>
     <row r="659">
@@ -5394,7 +5354,7 @@
         <v>658</v>
       </c>
       <c r="B659">
-        <v>-0.67113087515600578</v>
+        <v>-0.67045918513054825</v>
       </c>
     </row>
     <row r="660">
@@ -5402,7 +5362,7 @@
         <v>659</v>
       </c>
       <c r="B660">
-        <v>-0.25237085853661773</v>
+        <v>-0.25168816486748924</v>
       </c>
     </row>
     <row r="661">
@@ -5410,7 +5370,7 @@
         <v>660</v>
       </c>
       <c r="B661">
-        <v>-2.001754970055635</v>
+        <v>-2.0003684629246572</v>
       </c>
     </row>
     <row r="662">
@@ -5418,7 +5378,7 @@
         <v>661</v>
       </c>
       <c r="B662">
-        <v>-1.7839331761917816</v>
+        <v>-1.7829666182552637</v>
       </c>
     </row>
     <row r="663">
@@ -5426,7 +5386,7 @@
         <v>662</v>
       </c>
       <c r="B663">
-        <v>-1.2856481165657256</v>
+        <v>-1.2849749798333232</v>
       </c>
     </row>
     <row r="664">
@@ -5434,7 +5394,7 @@
         <v>663</v>
       </c>
       <c r="B664">
-        <v>-1.284705830434288</v>
+        <v>-1.2840281273049798</v>
       </c>
     </row>
     <row r="665">
@@ -5442,7 +5402,7 @@
         <v>664</v>
       </c>
       <c r="B665">
-        <v>-0.6753487713357339</v>
+        <v>-0.67467269189439061</v>
       </c>
     </row>
     <row r="666">
@@ -5450,7 +5410,7 @@
         <v>665</v>
       </c>
       <c r="B666">
-        <v>-0.25025645476621777</v>
+        <v>-0.24956105707497933</v>
       </c>
     </row>
     <row r="667">
@@ -5458,7 +5418,7 @@
         <v>666</v>
       </c>
       <c r="B667">
-        <v>-0.86865933757349445</v>
+        <v>-0.86862976202767472</v>
       </c>
     </row>
     <row r="668">
@@ -5466,7 +5426,7 @@
         <v>667</v>
       </c>
       <c r="B668">
-        <v>-0.87995591189332334</v>
+        <v>-0.87990297024686004</v>
       </c>
     </row>
     <row r="669">
@@ -5474,7 +5434,7 @@
         <v>668</v>
       </c>
       <c r="B669">
-        <v>-1.2801633677647877</v>
+        <v>-1.2818858287576407</v>
       </c>
     </row>
     <row r="670">
@@ -5482,7 +5442,7 @@
         <v>669</v>
       </c>
       <c r="B670">
-        <v>-1.2066858893908616</v>
+        <v>-1.2078668650369166</v>
       </c>
     </row>
     <row r="671">
@@ -5490,7 +5450,7 @@
         <v>670</v>
       </c>
       <c r="B671">
-        <v>-1.0103696096210588</v>
+        <v>-1.0109960626694192</v>
       </c>
     </row>
     <row r="672">
@@ -5498,7 +5458,7 @@
         <v>671</v>
       </c>
       <c r="B672">
-        <v>-1.0294037847128887</v>
+        <v>-1.030034815553311</v>
       </c>
     </row>
     <row r="673">
@@ -5506,7 +5466,7 @@
         <v>672</v>
       </c>
       <c r="B673">
-        <v>-0.69419673191987985</v>
+        <v>-0.69434278152982531</v>
       </c>
     </row>
     <row r="674">
@@ -5514,7 +5474,7 @@
         <v>673</v>
       </c>
       <c r="B674">
-        <v>-1.1635742370867961</v>
+        <v>-1.1661043938751823</v>
       </c>
     </row>
     <row r="675">
@@ -5522,7 +5482,7 @@
         <v>674</v>
       </c>
       <c r="B675">
-        <v>-1.2265026483242638</v>
+        <v>-1.2286095477460426</v>
       </c>
     </row>
     <row r="676">
@@ -5530,7 +5490,7 @@
         <v>675</v>
       </c>
       <c r="B676">
-        <v>-1.1620047087724914</v>
+        <v>-1.163864825757952</v>
       </c>
     </row>
     <row r="677">
@@ -5538,7 +5498,7 @@
         <v>676</v>
       </c>
       <c r="B677">
-        <v>-0.96858687997141735</v>
+        <v>-0.96983417855281262</v>
       </c>
     </row>
     <row r="678">
@@ -5546,7 +5506,7 @@
         <v>677</v>
       </c>
       <c r="B678">
-        <v>-0.98986023378815169</v>
+        <v>-0.99111741027550071</v>
       </c>
     </row>
     <row r="679">
@@ -5554,7 +5514,7 @@
         <v>678</v>
       </c>
       <c r="B679">
-        <v>-0.68286079524156607</v>
+        <v>-0.68347008423315947</v>
       </c>
     </row>
     <row r="680">
@@ -5562,7 +5522,7 @@
         <v>679</v>
       </c>
       <c r="B680">
-        <v>-0.31790735392020331</v>
+        <v>-0.31799168420594043</v>
       </c>
     </row>
     <row r="681">
@@ -5570,7 +5530,7 @@
         <v>680</v>
       </c>
       <c r="B681">
-        <v>0.043312495851158955</v>
+        <v>0.043626448592641962</v>
       </c>
     </row>
     <row r="682">
@@ -5578,7 +5538,7 @@
         <v>681</v>
       </c>
       <c r="B682">
-        <v>-0.8941794613877122</v>
+        <v>-0.89622904109625035</v>
       </c>
     </row>
     <row r="683">
@@ -5586,7 +5546,7 @@
         <v>682</v>
       </c>
       <c r="B683">
-        <v>-0.96623783095049987</v>
+        <v>-0.96856150751995607</v>
       </c>
     </row>
     <row r="684">
@@ -5594,7 +5554,7 @@
         <v>683</v>
       </c>
       <c r="B684">
-        <v>-1.0189009173786501</v>
+        <v>-1.0212006816593695</v>
       </c>
     </row>
     <row r="685">
@@ -5602,7 +5562,7 @@
         <v>684</v>
       </c>
       <c r="B685">
-        <v>-1.0034930024776085</v>
+        <v>-1.0054221964982299</v>
       </c>
     </row>
     <row r="686">
@@ -5610,7 +5570,7 @@
         <v>685</v>
       </c>
       <c r="B686">
-        <v>-0.83387927043884236</v>
+        <v>-0.83529993146710591</v>
       </c>
     </row>
     <row r="687">
@@ -5618,7 +5578,7 @@
         <v>686</v>
       </c>
       <c r="B687">
-        <v>-0.85134095350465666</v>
+        <v>-0.8527758713809992</v>
       </c>
     </row>
     <row r="688">
@@ -5626,7 +5586,7 @@
         <v>687</v>
       </c>
       <c r="B688">
-        <v>-0.53467153548228785</v>
+        <v>-0.53545078529659196</v>
       </c>
     </row>
     <row r="689">
@@ -5634,7 +5594,7 @@
         <v>688</v>
       </c>
       <c r="B689">
-        <v>-0.17403205625951473</v>
+        <v>-0.17451430415417044</v>
       </c>
     </row>
     <row r="690">
@@ -5642,7 +5602,7 @@
         <v>689</v>
       </c>
       <c r="B690">
-        <v>0.14015289521546526</v>
+        <v>0.13980200948394386</v>
       </c>
     </row>
     <row r="691">
@@ -5650,7 +5610,7 @@
         <v>690</v>
       </c>
       <c r="B691">
-        <v>-0.80831550759000514</v>
+        <v>-0.8097568100364011</v>
       </c>
     </row>
     <row r="692">
@@ -5658,7 +5618,7 @@
         <v>691</v>
       </c>
       <c r="B692">
-        <v>-0.76656494671894593</v>
+        <v>-0.76814953440245537</v>
       </c>
     </row>
     <row r="693">
@@ -5666,7 +5626,7 @@
         <v>692</v>
       </c>
       <c r="B693">
-        <v>-0.87261423617827083</v>
+        <v>-0.87442629841484509</v>
       </c>
     </row>
     <row r="694">
@@ -5674,7 +5634,7 @@
         <v>693</v>
       </c>
       <c r="B694">
-        <v>-0.83456835570161758</v>
+        <v>-0.83597518447358976</v>
       </c>
     </row>
     <row r="695">
@@ -5682,7 +5642,7 @@
         <v>694</v>
       </c>
       <c r="B695">
-        <v>-0.62784319495772511</v>
+        <v>-0.62887555149343499</v>
       </c>
     </row>
     <row r="696">
@@ -5690,7 +5650,7 @@
         <v>695</v>
       </c>
       <c r="B696">
-        <v>-0.63836095089444977</v>
+        <v>-0.63940414033449322</v>
       </c>
     </row>
     <row r="697">
@@ -5698,7 +5658,7 @@
         <v>696</v>
       </c>
       <c r="B697">
-        <v>-0.31729485266187035</v>
+        <v>-0.31797867601465352</v>
       </c>
     </row>
     <row r="698">
@@ -5706,7 +5666,7 @@
         <v>697</v>
       </c>
       <c r="B698">
-        <v>-0.013499784365408342</v>
+        <v>-0.014105139844501081</v>
       </c>
     </row>
     <row r="699">
@@ -5714,7 +5674,7 @@
         <v>698</v>
       </c>
       <c r="B699">
-        <v>0.25507025722955073</v>
+        <v>0.25447151416205233</v>
       </c>
     </row>
     <row r="700">
@@ -5722,7 +5682,7 @@
         <v>699</v>
       </c>
       <c r="B700">
-        <v>0.40732182515806725</v>
+        <v>0.40666669541746869</v>
       </c>
     </row>
     <row r="701">
@@ -5730,7 +5690,7 @@
         <v>700</v>
       </c>
       <c r="B701">
-        <v>-0.83959102617104608</v>
+        <v>-0.841045852629831</v>
       </c>
     </row>
     <row r="702">
@@ -5738,7 +5698,7 @@
         <v>701</v>
       </c>
       <c r="B702">
-        <v>-0.80020992871479513</v>
+        <v>-0.80181025726625099</v>
       </c>
     </row>
     <row r="703">
@@ -5746,7 +5706,7 @@
         <v>702</v>
       </c>
       <c r="B703">
-        <v>-0.90696426960905763</v>
+        <v>-0.90879828342161695</v>
       </c>
     </row>
     <row r="704">
@@ -5754,7 +5714,7 @@
         <v>703</v>
       </c>
       <c r="B704">
-        <v>-0.87825758809107501</v>
+        <v>-0.87969438809649869</v>
       </c>
     </row>
     <row r="705">
@@ -5762,7 +5722,7 @@
         <v>704</v>
       </c>
       <c r="B705">
-        <v>-0.65125147631130165</v>
+        <v>-0.65229984773029215</v>
       </c>
     </row>
     <row r="706">
@@ -5770,7 +5730,7 @@
         <v>705</v>
       </c>
       <c r="B706">
-        <v>-0.65075409938704654</v>
+        <v>-0.6518054483338338</v>
       </c>
     </row>
     <row r="707">
@@ -5778,7 +5738,7 @@
         <v>706</v>
       </c>
       <c r="B707">
-        <v>-0.32915668426450218</v>
+        <v>-0.32985153438297471</v>
       </c>
     </row>
     <row r="708">
@@ -5786,7 +5746,7 @@
         <v>707</v>
       </c>
       <c r="B708">
-        <v>-0.020838182505189227</v>
+        <v>-0.021450230435851602</v>
       </c>
     </row>
     <row r="709">
@@ -5794,7 +5754,7 @@
         <v>708</v>
       </c>
       <c r="B709">
-        <v>0.24067040655089084</v>
+        <v>0.240046001944555</v>
       </c>
     </row>
     <row r="710">
@@ -5802,7 +5762,7 @@
         <v>709</v>
       </c>
       <c r="B710">
-        <v>0.38926884530045008</v>
+        <v>0.38858191761248734</v>
       </c>
     </row>
     <row r="711">
@@ -5810,7 +5770,7 @@
         <v>710</v>
       </c>
       <c r="B711">
-        <v>-0.8649815162705986</v>
+        <v>-0.86555351825049753</v>
       </c>
     </row>
     <row r="712">
@@ -5818,7 +5778,7 @@
         <v>711</v>
       </c>
       <c r="B712">
-        <v>-0.87695165574599498</v>
+        <v>-0.87757934175097119</v>
       </c>
     </row>
     <row r="713">
@@ -5826,7 +5786,7 @@
         <v>712</v>
       </c>
       <c r="B713">
-        <v>-0.91884763579946627</v>
+        <v>-0.9200395540876749</v>
       </c>
     </row>
     <row r="714">
@@ -5834,7 +5794,7 @@
         <v>713</v>
       </c>
       <c r="B714">
-        <v>-0.8607707682949397</v>
+        <v>-0.86165778287010575</v>
       </c>
     </row>
     <row r="715">
@@ -5842,7 +5802,7 @@
         <v>714</v>
       </c>
       <c r="B715">
-        <v>-0.58058858257145962</v>
+        <v>-0.58099184910883561</v>
       </c>
     </row>
     <row r="716">
@@ -5850,7 +5810,7 @@
         <v>715</v>
       </c>
       <c r="B716">
-        <v>-0.57473464716895095</v>
+        <v>-0.57513711862310013</v>
       </c>
     </row>
     <row r="717">
@@ -5858,7 +5818,7 @@
         <v>716</v>
       </c>
       <c r="B717">
-        <v>-0.22924350778185046</v>
+        <v>-0.22967698723076599</v>
       </c>
     </row>
     <row r="718">
@@ -5866,7 +5826,7 @@
         <v>717</v>
       </c>
       <c r="B718">
-        <v>0.086565729862589522</v>
+        <v>0.086010797367529604</v>
       </c>
     </row>
     <row r="719">
@@ -5874,7 +5834,7 @@
         <v>718</v>
       </c>
       <c r="B719">
-        <v>0.30634609978892069</v>
+        <v>0.30563909239215314</v>
       </c>
     </row>
     <row r="720">
@@ -5882,7 +5842,7 @@
         <v>719</v>
       </c>
       <c r="B720">
-        <v>0.42191443328039813</v>
+        <v>0.42090552970393524</v>
       </c>
     </row>
     <row r="721">
@@ -5890,7 +5850,7 @@
         <v>720</v>
       </c>
       <c r="B721">
-        <v>0.51249012223053303</v>
+        <v>0.51112267354621199</v>
       </c>
     </row>
     <row r="722">
@@ -5898,7 +5858,7 @@
         <v>721</v>
       </c>
       <c r="B722">
-        <v>-1.0428487696303386</v>
+        <v>-1.0427387225983866</v>
       </c>
     </row>
     <row r="723">
@@ -5906,7 +5866,7 @@
         <v>722</v>
       </c>
       <c r="B723">
-        <v>-1.1376823911453791</v>
+        <v>-1.1375822341237773</v>
       </c>
     </row>
     <row r="724">
@@ -5914,7 +5874,7 @@
         <v>723</v>
       </c>
       <c r="B724">
-        <v>-1.0754218586248496</v>
+        <v>-1.0757102918591954</v>
       </c>
     </row>
     <row r="725">
@@ -5922,7 +5882,7 @@
         <v>724</v>
       </c>
       <c r="B725">
-        <v>-0.94726377719292054</v>
+        <v>-0.94726134845580978</v>
       </c>
     </row>
     <row r="726">
@@ -5930,7 +5890,7 @@
         <v>725</v>
       </c>
       <c r="B726">
-        <v>-0.65508727401418765</v>
+        <v>-0.65526775550311389</v>
       </c>
     </row>
     <row r="727">
@@ -5938,7 +5898,7 @@
         <v>726</v>
       </c>
       <c r="B727">
-        <v>-0.65148190170615172</v>
+        <v>-0.65166464031031102</v>
       </c>
     </row>
     <row r="728">
@@ -5946,7 +5906,7 @@
         <v>727</v>
       </c>
       <c r="B728">
-        <v>-0.2605829627229585</v>
+        <v>-0.26079873553251348</v>
       </c>
     </row>
     <row r="729">
@@ -5954,7 +5914,7 @@
         <v>728</v>
       </c>
       <c r="B729">
-        <v>0.064142736456458391</v>
+        <v>0.063715180898081994</v>
       </c>
     </row>
     <row r="730">
@@ -5962,7 +5922,7 @@
         <v>729</v>
       </c>
       <c r="B730">
-        <v>0.27990153202337525</v>
+        <v>0.27926852830929988</v>
       </c>
     </row>
     <row r="731">
@@ -5970,7 +5930,7 @@
         <v>730</v>
       </c>
       <c r="B731">
-        <v>0.39551287919878636</v>
+        <v>0.39440597506971087</v>
       </c>
     </row>
     <row r="732">
@@ -5978,7 +5938,7 @@
         <v>731</v>
       </c>
       <c r="B732">
-        <v>0.46954157763316473</v>
+        <v>0.46800461577192898</v>
       </c>
     </row>
     <row r="733">
@@ -5986,7 +5946,7 @@
         <v>732</v>
       </c>
       <c r="B733">
-        <v>-1.4827894817036675</v>
+        <v>-1.4821484114560357</v>
       </c>
     </row>
     <row r="734">
@@ -5994,7 +5954,7 @@
         <v>733</v>
       </c>
       <c r="B734">
-        <v>-1.5478349413934611</v>
+        <v>-1.5474180063583873</v>
       </c>
     </row>
     <row r="735">
@@ -6002,7 +5962,7 @@
         <v>734</v>
       </c>
       <c r="B735">
-        <v>-1.4463784282203798</v>
+        <v>-1.4460958803042598</v>
       </c>
     </row>
     <row r="736">
@@ -6010,7 +5970,7 @@
         <v>735</v>
       </c>
       <c r="B736">
-        <v>-1.231348065828203</v>
+        <v>-1.2310485846614947</v>
       </c>
     </row>
     <row r="737">
@@ -6018,7 +5978,7 @@
         <v>736</v>
       </c>
       <c r="B737">
-        <v>-0.92712572387690606</v>
+        <v>-0.92683179228502677</v>
       </c>
     </row>
     <row r="738">
@@ -6026,7 +5986,7 @@
         <v>737</v>
       </c>
       <c r="B738">
-        <v>-0.92882048710833176</v>
+        <v>-0.92853077627243386</v>
       </c>
     </row>
     <row r="739">
@@ -6034,7 +5994,7 @@
         <v>738</v>
       </c>
       <c r="B739">
-        <v>-0.45386975036533084</v>
+        <v>-0.45380199189836212</v>
       </c>
     </row>
     <row r="740">
@@ -6042,7 +6002,7 @@
         <v>739</v>
       </c>
       <c r="B740">
-        <v>-0.078739405235398893</v>
+        <v>-0.079001640125796413</v>
       </c>
     </row>
     <row r="741">
@@ -6050,7 +6010,7 @@
         <v>740</v>
       </c>
       <c r="B741">
-        <v>0.1398833191589782</v>
+        <v>0.13919425989699627</v>
       </c>
     </row>
     <row r="742">
@@ -6058,7 +6018,7 @@
         <v>741</v>
       </c>
       <c r="B742">
-        <v>0.27205662558921728</v>
+        <v>0.27109843296809499</v>
       </c>
     </row>
     <row r="743">
@@ -6066,7 +6026,7 @@
         <v>742</v>
       </c>
       <c r="B743">
-        <v>0.33153855467242382</v>
+        <v>0.33018715305922308</v>
       </c>
     </row>
     <row r="744">
@@ -6074,7 +6034,7 @@
         <v>743</v>
       </c>
       <c r="B744">
-        <v>-1.9042587988300095</v>
+        <v>-1.9032398721624979</v>
       </c>
     </row>
     <row r="745">
@@ -6082,7 +6042,7 @@
         <v>744</v>
       </c>
       <c r="B745">
-        <v>-1.9330282896916229</v>
+        <v>-1.9321553879563904</v>
       </c>
     </row>
     <row r="746">
@@ -6090,7 +6050,7 @@
         <v>745</v>
       </c>
       <c r="B746">
-        <v>-1.7952834631069934</v>
+        <v>-1.7947320432541563</v>
       </c>
     </row>
     <row r="747">
@@ -6098,7 +6058,7 @@
         <v>746</v>
       </c>
       <c r="B747">
-        <v>-1.5428896111384456</v>
+        <v>-1.5422737595149514</v>
       </c>
     </row>
     <row r="748">
@@ -6106,7 +6066,7 @@
         <v>747</v>
       </c>
       <c r="B748">
-        <v>-1.1578493046477922</v>
+        <v>-1.1575214382228509</v>
       </c>
     </row>
     <row r="749">
@@ -6114,7 +6074,7 @@
         <v>748</v>
       </c>
       <c r="B749">
-        <v>-1.1572877894577636</v>
+        <v>-1.1569592548082808</v>
       </c>
     </row>
     <row r="750">
@@ -6122,7 +6082,7 @@
         <v>749</v>
       </c>
       <c r="B750">
-        <v>-0.67030627839764245</v>
+        <v>-0.67006479089406223</v>
       </c>
     </row>
     <row r="751">
@@ -6130,7 +6090,7 @@
         <v>750</v>
       </c>
       <c r="B751">
-        <v>-0.25706880780669822</v>
+        <v>-0.25713576142927042</v>
       </c>
     </row>
     <row r="752">
@@ -6138,7 +6098,7 @@
         <v>751</v>
       </c>
       <c r="B752">
-        <v>-0.0055377387177338129</v>
+        <v>-0.0059107101570609367</v>
       </c>
     </row>
     <row r="753">
@@ -6146,7 +6106,7 @@
         <v>752</v>
       </c>
       <c r="B753">
-        <v>0.11448099769977171</v>
+        <v>0.11391704703921264</v>
       </c>
     </row>
     <row r="754">
@@ -6154,7 +6114,7 @@
         <v>753</v>
       </c>
       <c r="B754">
-        <v>0.096537773028454218</v>
+        <v>0.095800724023877765</v>
       </c>
     </row>
     <row r="755">
@@ -6162,7 +6122,7 @@
         <v>754</v>
       </c>
       <c r="B755">
-        <v>-2.163396333944291</v>
+        <v>-2.161821119134935</v>
       </c>
     </row>
     <row r="756">
@@ -6170,7 +6130,7 @@
         <v>755</v>
       </c>
       <c r="B756">
-        <v>-2.148928749137057</v>
+        <v>-2.1475589049673141</v>
       </c>
     </row>
     <row r="757">
@@ -6178,7 +6138,7 @@
         <v>756</v>
       </c>
       <c r="B757">
-        <v>-2.032040479956633</v>
+        <v>-2.0307051653170367</v>
       </c>
     </row>
     <row r="758">
@@ -6186,7 +6146,7 @@
         <v>757</v>
       </c>
       <c r="B758">
-        <v>-1.7275905894707833</v>
+        <v>-1.7266063355278751</v>
       </c>
     </row>
     <row r="759">
@@ -6194,7 +6154,7 @@
         <v>758</v>
       </c>
       <c r="B759">
-        <v>-1.3586691302646823</v>
+        <v>-1.3578838399866855</v>
       </c>
     </row>
     <row r="760">
@@ -6202,7 +6162,7 @@
         <v>759</v>
       </c>
       <c r="B760">
-        <v>-1.3597529544030287</v>
+        <v>-1.3589689409788206</v>
       </c>
     </row>
     <row r="761">
@@ -6210,7 +6170,7 @@
         <v>760</v>
       </c>
       <c r="B761">
-        <v>-0.84385237473564678</v>
+        <v>-0.84317705481351624</v>
       </c>
     </row>
     <row r="762">
@@ -6218,7 +6178,7 @@
         <v>761</v>
       </c>
       <c r="B762">
-        <v>-0.37332740798174802</v>
+        <v>-0.37307220398169755</v>
       </c>
     </row>
     <row r="763">
@@ -6226,7 +6186,7 @@
         <v>762</v>
       </c>
       <c r="B763">
-        <v>-0.11726919905745499</v>
+        <v>-0.11706975788828272</v>
       </c>
     </row>
     <row r="764">
@@ -6234,7 +6194,7 @@
         <v>763</v>
       </c>
       <c r="B764">
-        <v>-0.016214896758186353</v>
+        <v>-0.016278616102991028</v>
       </c>
     </row>
     <row r="765">
@@ -6242,7 +6202,7 @@
         <v>764</v>
       </c>
       <c r="B765">
-        <v>-0.052879083711671618</v>
+        <v>-0.053250662391334996</v>
       </c>
     </row>
     <row r="766">
@@ -6250,7 +6210,7 @@
         <v>765</v>
       </c>
       <c r="B766">
-        <v>-2.283568988314129</v>
+        <v>-2.2817283318510171</v>
       </c>
     </row>
     <row r="767">
@@ -6258,7 +6218,7 @@
         <v>766</v>
       </c>
       <c r="B767">
-        <v>-2.228592507922035</v>
+        <v>-2.226879161838152</v>
       </c>
     </row>
     <row r="768">
@@ -6266,7 +6226,7 @@
         <v>767</v>
       </c>
       <c r="B768">
-        <v>-2.0983264753616058</v>
+        <v>-2.0966784332941595</v>
       </c>
     </row>
     <row r="769">
@@ -6274,7 +6234,7 @@
         <v>768</v>
       </c>
       <c r="B769">
-        <v>-1.8576635788146885</v>
+        <v>-1.8562021706811018</v>
       </c>
     </row>
     <row r="770">
@@ -6282,7 +6242,7 @@
         <v>769</v>
       </c>
       <c r="B770">
-        <v>-1.4694532514495384</v>
+        <v>-1.4684316981223358</v>
       </c>
     </row>
     <row r="771">
@@ -6290,7 +6250,7 @@
         <v>770</v>
       </c>
       <c r="B771">
-        <v>-1.4705139797240312</v>
+        <v>-1.4694916603406507</v>
       </c>
     </row>
     <row r="772">
@@ -6298,7 +6258,7 @@
         <v>771</v>
       </c>
       <c r="B772">
-        <v>-0.9628148518035059</v>
+        <v>-0.96202378514133102</v>
       </c>
     </row>
     <row r="773">
@@ -6306,7 +6266,7 @@
         <v>772</v>
       </c>
       <c r="B773">
-        <v>-0.51770355327942708</v>
+        <v>-0.51708688422801397</v>
       </c>
     </row>
     <row r="774">
@@ -6314,7 +6274,7 @@
         <v>773</v>
       </c>
       <c r="B774">
-        <v>-0.23465196742380803</v>
+        <v>-0.23406568779935064</v>
       </c>
     </row>
     <row r="775">
@@ -6322,7 +6282,7 @@
         <v>774</v>
       </c>
       <c r="B775">
-        <v>-0.17389340018241375</v>
+        <v>-0.17333672907290573</v>
       </c>
     </row>
     <row r="776">
@@ -6330,7 +6290,7 @@
         <v>775</v>
       </c>
       <c r="B776">
-        <v>-2.1712216481493671</v>
+        <v>-2.1692362792496946</v>
       </c>
     </row>
     <row r="777">
@@ -6338,7 +6298,7 @@
         <v>776</v>
       </c>
       <c r="B777">
-        <v>-2.0158156503235931</v>
+        <v>-2.0139938420762693</v>
       </c>
     </row>
     <row r="778">
@@ -6346,7 +6306,7 @@
         <v>777</v>
       </c>
       <c r="B778">
-        <v>-1.7483093178412177</v>
+        <v>-1.7467174592643819</v>
       </c>
     </row>
     <row r="779">
@@ -6354,7 +6314,7 @@
         <v>778</v>
       </c>
       <c r="B779">
-        <v>-0.93952957212465493</v>
+        <v>-0.93830712710402431</v>
       </c>
     </row>
     <row r="780">
@@ -6362,7 +6322,7 @@
         <v>779</v>
       </c>
       <c r="B780">
-        <v>-0.55887458992835781</v>
+        <v>-0.55775293447845464</v>
       </c>
     </row>
     <row r="781">
@@ -6370,7 +6330,7 @@
         <v>780</v>
       </c>
       <c r="B781">
-        <v>-2.1620138884581297</v>
+        <v>-2.1600107106320481</v>
       </c>
     </row>
     <row r="782">
@@ -6378,7 +6338,7 @@
         <v>781</v>
       </c>
       <c r="B782">
-        <v>-2.0162460664668598</v>
+        <v>-2.0144199291436191</v>
       </c>
     </row>
     <row r="783">
@@ -6386,7 +6346,7 @@
         <v>782</v>
       </c>
       <c r="B783">
-        <v>-1.7503521498535379</v>
+        <v>-1.7487597024925123</v>
       </c>
     </row>
     <row r="784">
@@ -6394,7 +6354,7 @@
         <v>783</v>
       </c>
       <c r="B784">
-        <v>-0.92871954072802432</v>
+        <v>-0.92748104459655889</v>
       </c>
     </row>
     <row r="785">
@@ -6402,7 +6362,7 @@
         <v>784</v>
       </c>
       <c r="B785">
-        <v>-0.54147833845468007</v>
+        <v>-0.54033349653764517</v>
       </c>
     </row>
     <row r="786">
@@ -6410,7 +6370,7 @@
         <v>785</v>
       </c>
       <c r="B786">
-        <v>-1.7550926847594897</v>
+        <v>-1.7574043835546189</v>
       </c>
     </row>
     <row r="787">
@@ -6418,7 +6378,7 @@
         <v>786</v>
       </c>
       <c r="B787">
-        <v>-1.6814216684245897</v>
+        <v>-1.6832464828033535</v>
       </c>
     </row>
     <row r="788">
@@ -6426,7 +6386,7 @@
         <v>787</v>
       </c>
       <c r="B788">
-        <v>-1.4473989763363071</v>
+        <v>-1.4488101829111946</v>
       </c>
     </row>
     <row r="789">
@@ -6434,7 +6394,7 @@
         <v>788</v>
       </c>
       <c r="B789">
-        <v>-1.4400023461263207</v>
+        <v>-1.4414046468018566</v>
       </c>
     </row>
     <row r="790">
@@ -6442,7 +6402,7 @@
         <v>789</v>
       </c>
       <c r="B790">
-        <v>-1.5833168345826634</v>
+        <v>-1.5855156460018243</v>
       </c>
     </row>
     <row r="791">
@@ -6450,7 +6410,7 @@
         <v>790</v>
       </c>
       <c r="B791">
-        <v>-1.7012103095531517</v>
+        <v>-1.7034581674099385</v>
       </c>
     </row>
     <row r="792">
@@ -6458,7 +6418,7 @@
         <v>791</v>
       </c>
       <c r="B792">
-        <v>-1.6754555264624047</v>
+        <v>-1.6772403701525691</v>
       </c>
     </row>
     <row r="793">
@@ -6466,7 +6426,7 @@
         <v>792</v>
       </c>
       <c r="B793">
-        <v>-1.447235430294963</v>
+        <v>-1.4487923262435125</v>
       </c>
     </row>
     <row r="794">
@@ -6474,7 +6434,7 @@
         <v>793</v>
       </c>
       <c r="B794">
-        <v>-1.4514023895400527</v>
+        <v>-1.4529712254009794</v>
       </c>
     </row>
     <row r="795">
@@ -6482,7 +6442,7 @@
         <v>794</v>
       </c>
       <c r="B795">
-        <v>-1.0618489615392939</v>
+        <v>-1.0628731672402933</v>
       </c>
     </row>
     <row r="796">
@@ -6490,7 +6450,7 @@
         <v>795</v>
       </c>
       <c r="B796">
-        <v>-0.64882399796168089</v>
+        <v>-0.64957275644948065</v>
       </c>
     </row>
     <row r="797">
@@ -6498,7 +6458,7 @@
         <v>796</v>
       </c>
       <c r="B797">
-        <v>-1.3373692423322394</v>
+        <v>-1.3388076187075086</v>
       </c>
     </row>
     <row r="798">
@@ -6506,7 +6466,7 @@
         <v>797</v>
       </c>
       <c r="B798">
-        <v>-1.4755690521342923</v>
+        <v>-1.4771221547622713</v>
       </c>
     </row>
     <row r="799">
@@ -6514,7 +6474,7 @@
         <v>798</v>
       </c>
       <c r="B799">
-        <v>-1.6493863844863237</v>
+        <v>-1.6511036042471285</v>
       </c>
     </row>
     <row r="800">
@@ -6522,7 +6482,7 @@
         <v>799</v>
       </c>
       <c r="B800">
-        <v>-1.6403016317292116</v>
+        <v>-1.6417547981898071</v>
       </c>
     </row>
     <row r="801">
@@ -6530,7 +6490,7 @@
         <v>800</v>
       </c>
       <c r="B801">
-        <v>-1.3698264462630509</v>
+        <v>-1.3710993651255063</v>
       </c>
     </row>
     <row r="802">
@@ -6538,7 +6498,7 @@
         <v>801</v>
       </c>
       <c r="B802">
-        <v>-1.3716664968989805</v>
+        <v>-1.3729497087699358</v>
       </c>
     </row>
     <row r="803">
@@ -6546,7 +6506,7 @@
         <v>802</v>
       </c>
       <c r="B803">
-        <v>-0.95962155464556087</v>
+        <v>-0.96054500079010519</v>
       </c>
     </row>
     <row r="804">
@@ -6554,7 +6514,7 @@
         <v>803</v>
       </c>
       <c r="B804">
-        <v>-0.5274495540682097</v>
+        <v>-0.52841762005737902</v>
       </c>
     </row>
     <row r="805">
@@ -6562,7 +6522,7 @@
         <v>804</v>
       </c>
       <c r="B805">
-        <v>-0.13913492391332169</v>
+        <v>-0.1401084941652217</v>
       </c>
     </row>
     <row r="806">
@@ -6570,7 +6530,7 @@
         <v>805</v>
       </c>
       <c r="B806">
-        <v>-1.3470534359273512</v>
+        <v>-1.3484964207006422</v>
       </c>
     </row>
     <row r="807">
@@ -6578,7 +6538,7 @@
         <v>806</v>
       </c>
       <c r="B807">
-        <v>-1.4869239357672077</v>
+        <v>-1.488478826460317</v>
       </c>
     </row>
     <row r="808">
@@ -6586,7 +6546,7 @@
         <v>807</v>
       </c>
       <c r="B808">
-        <v>-1.6646877839220067</v>
+        <v>-1.6664129115238029</v>
       </c>
     </row>
     <row r="809">
@@ -6594,7 +6554,7 @@
         <v>808</v>
       </c>
       <c r="B809">
-        <v>-1.6523296767554689</v>
+        <v>-1.653788530307704</v>
       </c>
     </row>
     <row r="810">
@@ -6602,7 +6562,7 @@
         <v>809</v>
       </c>
       <c r="B810">
-        <v>-1.3752901889857729</v>
+        <v>-1.3765632474639262</v>
       </c>
     </row>
     <row r="811">
@@ -6610,7 +6570,7 @@
         <v>810</v>
       </c>
       <c r="B811">
-        <v>-1.3802154647544105</v>
+        <v>-1.3815029455332073</v>
       </c>
     </row>
     <row r="812">
@@ -6618,7 +6578,7 @@
         <v>811</v>
       </c>
       <c r="B812">
-        <v>-0.96545487358949189</v>
+        <v>-0.96638261239900525</v>
       </c>
     </row>
     <row r="813">
@@ -6626,7 +6586,7 @@
         <v>812</v>
       </c>
       <c r="B813">
-        <v>-0.5295005097202633</v>
+        <v>-0.53046919400625059</v>
       </c>
     </row>
     <row r="814">
@@ -6634,7 +6594,7 @@
         <v>813</v>
       </c>
       <c r="B814">
-        <v>-0.14706168912208256</v>
+        <v>-0.14804387701625787</v>
       </c>
     </row>
     <row r="815">
@@ -6642,7 +6602,7 @@
         <v>814</v>
       </c>
       <c r="B815">
-        <v>-1.3171911791219015</v>
+        <v>-1.3177360287572719</v>
       </c>
     </row>
     <row r="816">
@@ -6650,7 +6610,7 @@
         <v>815</v>
       </c>
       <c r="B816">
-        <v>-1.5349639643860393</v>
+        <v>-1.5357876669385426</v>
       </c>
     </row>
     <row r="817">
@@ -6658,7 +6618,7 @@
         <v>816</v>
       </c>
       <c r="B817">
-        <v>-1.6818185283697991</v>
+        <v>-1.6829285144460451</v>
       </c>
     </row>
     <row r="818">
@@ -6666,7 +6626,7 @@
         <v>817</v>
       </c>
       <c r="B818">
-        <v>-1.6728303848577892</v>
+        <v>-1.6737787621521749</v>
       </c>
     </row>
     <row r="819">
@@ -6674,7 +6634,7 @@
         <v>818</v>
       </c>
       <c r="B819">
-        <v>-1.3443225909082823</v>
+        <v>-1.3450892629646496</v>
       </c>
     </row>
     <row r="820">
@@ -6682,7 +6642,7 @@
         <v>819</v>
       </c>
       <c r="B820">
-        <v>-1.3482901195783563</v>
+        <v>-1.3490667713902851</v>
       </c>
     </row>
     <row r="821">
@@ -6690,7 +6650,7 @@
         <v>820</v>
       </c>
       <c r="B821">
-        <v>-0.88641353976393777</v>
+        <v>-0.88708138355265609</v>
       </c>
     </row>
     <row r="822">
@@ -6698,7 +6658,7 @@
         <v>821</v>
       </c>
       <c r="B822">
-        <v>-0.41161602871579034</v>
+        <v>-0.41245939173899532</v>
       </c>
     </row>
     <row r="823">
@@ -6706,7 +6666,7 @@
         <v>822</v>
       </c>
       <c r="B823">
-        <v>-0.043115733508422592</v>
+        <v>-0.044127291509149826</v>
       </c>
     </row>
     <row r="824">
@@ -6714,7 +6674,7 @@
         <v>823</v>
       </c>
       <c r="B824">
-        <v>0.14452718908904913</v>
+        <v>0.143317393689604</v>
       </c>
     </row>
     <row r="825">
@@ -6722,7 +6682,7 @@
         <v>824</v>
       </c>
       <c r="B825">
-        <v>-1.4458079738023353</v>
+        <v>-1.4457660055460499</v>
       </c>
     </row>
     <row r="826">
@@ -6730,7 +6690,7 @@
         <v>825</v>
       </c>
       <c r="B826">
-        <v>-1.7104739869896599</v>
+        <v>-1.7104425534042882</v>
       </c>
     </row>
     <row r="827">
@@ -6738,7 +6698,7 @@
         <v>826</v>
       </c>
       <c r="B827">
-        <v>-1.8153445737766589</v>
+        <v>-1.8156965284321707</v>
       </c>
     </row>
     <row r="828">
@@ -6746,7 +6706,7 @@
         <v>827</v>
       </c>
       <c r="B828">
-        <v>-1.7132748379746228</v>
+        <v>-1.7136371577725507</v>
       </c>
     </row>
     <row r="829">
@@ -6754,7 +6714,7 @@
         <v>828</v>
       </c>
       <c r="B829">
-        <v>-1.3889955306757666</v>
+        <v>-1.3894293596689715</v>
       </c>
     </row>
     <row r="830">
@@ -6762,7 +6722,7 @@
         <v>829</v>
       </c>
       <c r="B830">
-        <v>-1.3912404493513</v>
+        <v>-1.3916794976788252</v>
       </c>
     </row>
     <row r="831">
@@ -6770,7 +6730,7 @@
         <v>830</v>
       </c>
       <c r="B831">
-        <v>-0.86750846619963229</v>
+        <v>-0.86789134080017916</v>
       </c>
     </row>
     <row r="832">
@@ -6778,7 +6738,7 @@
         <v>831</v>
       </c>
       <c r="B832">
-        <v>-0.39346430542282562</v>
+        <v>-0.39393004247058028</v>
       </c>
     </row>
     <row r="833">
@@ -6786,7 +6746,7 @@
         <v>832</v>
       </c>
       <c r="B833">
-        <v>-0.069441147334773468</v>
+        <v>-0.070216536704043625</v>
       </c>
     </row>
     <row r="834">
@@ -6794,7 +6754,7 @@
         <v>833</v>
       </c>
       <c r="B834">
-        <v>0.13647027742816081</v>
+        <v>0.13535769043775406</v>
       </c>
     </row>
     <row r="835">
@@ -6802,7 +6762,7 @@
         <v>834</v>
       </c>
       <c r="B835">
-        <v>-1.806646034844523</v>
+        <v>-1.8060605775257073</v>
       </c>
     </row>
     <row r="836">
@@ -6810,7 +6770,7 @@
         <v>835</v>
       </c>
       <c r="B836">
-        <v>-1.9482836943504909</v>
+        <v>-1.9479031191141929</v>
       </c>
     </row>
     <row r="837">
@@ -6818,7 +6778,7 @@
         <v>836</v>
       </c>
       <c r="B837">
-        <v>-1.9545285324750203</v>
+        <v>-1.9542636742106541</v>
       </c>
     </row>
     <row r="838">
@@ -6826,7 +6786,7 @@
         <v>837</v>
       </c>
       <c r="B838">
-        <v>-1.794767582584911</v>
+        <v>-1.7945689870689259</v>
       </c>
     </row>
     <row r="839">
@@ -6834,7 +6794,7 @@
         <v>838</v>
       </c>
       <c r="B839">
-        <v>-1.4565841009228824</v>
+        <v>-1.4564647723960999</v>
       </c>
     </row>
     <row r="840">
@@ -6842,7 +6802,7 @@
         <v>839</v>
       </c>
       <c r="B840">
-        <v>-1.4583217034872613</v>
+        <v>-1.4582070420262909</v>
       </c>
     </row>
     <row r="841">
@@ -6850,7 +6810,7 @@
         <v>840</v>
       </c>
       <c r="B841">
-        <v>-0.95295581771906734</v>
+        <v>-0.95274994400536628</v>
       </c>
     </row>
     <row r="842">
@@ -6858,7 +6818,7 @@
         <v>841</v>
       </c>
       <c r="B842">
-        <v>-0.46750274740677811</v>
+        <v>-0.46762380877249654</v>
       </c>
     </row>
     <row r="843">
@@ -6866,7 +6826,7 @@
         <v>842</v>
       </c>
       <c r="B843">
-        <v>-0.20441368017645381</v>
+        <v>-0.20498348939163646</v>
       </c>
     </row>
     <row r="844">
@@ -6874,7 +6834,7 @@
         <v>843</v>
       </c>
       <c r="B844">
-        <v>0.025498803304371324</v>
+        <v>0.024646948715984721</v>
       </c>
     </row>
     <row r="845">
@@ -6882,7 +6842,7 @@
         <v>844</v>
       </c>
       <c r="B845">
-        <v>-2.1109138128577927</v>
+        <v>-2.1097578038199178</v>
       </c>
     </row>
     <row r="846">
@@ -6890,7 +6850,7 @@
         <v>845</v>
       </c>
       <c r="B846">
-        <v>-2.1872983041550702</v>
+        <v>-2.186369109756908</v>
       </c>
     </row>
     <row r="847">
@@ -6898,7 +6858,7 @@
         <v>846</v>
       </c>
       <c r="B847">
-        <v>-2.1383543823680404</v>
+        <v>-2.1375888201156501</v>
       </c>
     </row>
     <row r="848">
@@ -6906,7 +6866,7 @@
         <v>847</v>
       </c>
       <c r="B848">
-        <v>-1.9297164959540882</v>
+        <v>-1.9289147504418589</v>
       </c>
     </row>
     <row r="849">
@@ -6914,7 +6874,7 @@
         <v>848</v>
       </c>
       <c r="B849">
-        <v>-1.5823211797414294</v>
+        <v>-1.581910957643176</v>
       </c>
     </row>
     <row r="850">
@@ -6922,7 +6882,7 @@
         <v>849</v>
       </c>
       <c r="B850">
-        <v>-1.5848589110408535</v>
+        <v>-1.5844522321586425</v>
       </c>
     </row>
     <row r="851">
@@ -6930,7 +6890,7 @@
         <v>850</v>
       </c>
       <c r="B851">
-        <v>-1.1268637593268813</v>
+        <v>-1.126370142103317</v>
       </c>
     </row>
     <row r="852">
@@ -6938,7 +6898,7 @@
         <v>851</v>
       </c>
       <c r="B852">
-        <v>-0.66527623940426817</v>
+        <v>-0.66518440917579169</v>
       </c>
     </row>
     <row r="853">
@@ -6946,7 +6906,7 @@
         <v>852</v>
       </c>
       <c r="B853">
-        <v>-0.35822850151905133</v>
+        <v>-0.35842094450212492</v>
       </c>
     </row>
     <row r="854">
@@ -6954,7 +6914,7 @@
         <v>853</v>
       </c>
       <c r="B854">
-        <v>-0.12964910637880708</v>
+        <v>-0.13004033591518729</v>
       </c>
     </row>
     <row r="855">
@@ -6962,7 +6922,7 @@
         <v>854</v>
       </c>
       <c r="B855">
-        <v>-2.2775876750685633</v>
+        <v>-2.2759985766643869</v>
       </c>
     </row>
     <row r="856">
@@ -6970,7 +6930,7 @@
         <v>855</v>
       </c>
       <c r="B856">
-        <v>-2.3115083549527529</v>
+        <v>-2.3100433830443743</v>
       </c>
     </row>
     <row r="857">
@@ -6978,7 +6938,7 @@
         <v>856</v>
       </c>
       <c r="B857">
-        <v>-2.2051927711608772</v>
+        <v>-2.2038553276578021</v>
       </c>
     </row>
     <row r="858">
@@ -6986,7 +6946,7 @@
         <v>857</v>
       </c>
       <c r="B858">
-        <v>-1.948473508030637</v>
+        <v>-1.9472601052269571</v>
       </c>
     </row>
     <row r="859">
@@ -6994,7 +6954,7 @@
         <v>858</v>
       </c>
       <c r="B859">
-        <v>-1.6232245558181924</v>
+        <v>-1.6222456598552526</v>
       </c>
     </row>
     <row r="860">
@@ -7002,7 +6962,7 @@
         <v>859</v>
       </c>
       <c r="B860">
-        <v>-1.6236810725196815</v>
+        <v>-1.6227018301939149</v>
       </c>
     </row>
     <row r="861">
@@ -7010,7 +6970,7 @@
         <v>860</v>
       </c>
       <c r="B861">
-        <v>-1.2142324141332552</v>
+        <v>-1.2131974485712413</v>
       </c>
     </row>
     <row r="862">
@@ -7018,7 +6978,7 @@
         <v>861</v>
       </c>
       <c r="B862">
-        <v>-0.73670706205214231</v>
+        <v>-0.73603168877516456</v>
       </c>
     </row>
     <row r="863">
@@ -7026,7 +6986,7 @@
         <v>862</v>
       </c>
       <c r="B863">
-        <v>-0.41878719147647803</v>
+        <v>-0.41833872612957934</v>
       </c>
     </row>
     <row r="864">
@@ -7034,7 +6994,7 @@
         <v>863</v>
       </c>
       <c r="B864">
-        <v>-0.28759078171311431</v>
+        <v>-0.28750213055381035</v>
       </c>
     </row>
     <row r="865">
@@ -7042,7 +7002,7 @@
         <v>864</v>
       </c>
       <c r="B865">
-        <v>-2.3289411602887067</v>
+        <v>-2.3270622315113672</v>
       </c>
     </row>
     <row r="866">
@@ -7050,7 +7010,7 @@
         <v>865</v>
       </c>
       <c r="B866">
-        <v>-2.3227044347970471</v>
+        <v>-2.3208529172818047</v>
       </c>
     </row>
     <row r="867">
@@ -7058,7 +7018,7 @@
         <v>866</v>
       </c>
       <c r="B867">
-        <v>-2.1913698011360858</v>
+        <v>-2.1894954596431431</v>
       </c>
     </row>
     <row r="868">
@@ -7066,7 +7026,7 @@
         <v>867</v>
       </c>
       <c r="B868">
-        <v>-1.9270135450372874</v>
+        <v>-1.9252716830156713</v>
       </c>
     </row>
     <row r="869">
@@ -7074,7 +7034,7 @@
         <v>868</v>
       </c>
       <c r="B869">
-        <v>-1.6126336028552879</v>
+        <v>-1.6112398073188952</v>
       </c>
     </row>
     <row r="870">
@@ -7082,7 +7042,7 @@
         <v>869</v>
       </c>
       <c r="B870">
-        <v>-1.6125685329177262</v>
+        <v>-1.6111744272979727</v>
       </c>
     </row>
     <row r="871">
@@ -7090,7 +7050,7 @@
         <v>870</v>
       </c>
       <c r="B871">
-        <v>-1.2178670700849534</v>
+        <v>-1.2167523040510733</v>
       </c>
     </row>
     <row r="872">
@@ -7098,7 +7058,7 @@
         <v>871</v>
       </c>
       <c r="B872">
-        <v>-0.81819876975912931</v>
+        <v>-0.81727337894088448</v>
       </c>
     </row>
     <row r="873">
@@ -7106,7 +7066,7 @@
         <v>872</v>
       </c>
       <c r="B873">
-        <v>-0.53953956182515606</v>
+        <v>-0.53880698275675398</v>
       </c>
     </row>
     <row r="874">
@@ -7114,7 +7074,7 @@
         <v>873</v>
       </c>
       <c r="B874">
-        <v>-0.47290616008918612</v>
+        <v>-0.47235599145344592</v>
       </c>
     </row>
     <row r="875">
@@ -7122,7 +7082,7 @@
         <v>874</v>
       </c>
       <c r="B875">
-        <v>-2.1029905499126951</v>
+        <v>-2.1047070745175716</v>
       </c>
     </row>
     <row r="876">
@@ -7130,7 +7090,7 @@
         <v>875</v>
       </c>
       <c r="B876">
-        <v>-1.8565501835393718</v>
+        <v>-1.8579495115131139</v>
       </c>
     </row>
     <row r="877">
@@ -7138,7 +7098,7 @@
         <v>876</v>
       </c>
       <c r="B877">
-        <v>-1.8659510585654886</v>
+        <v>-1.8673657810263378</v>
       </c>
     </row>
     <row r="878">
@@ -7146,7 +7106,7 @@
         <v>877</v>
       </c>
       <c r="B878">
-        <v>-1.4349094889008183</v>
+        <v>-1.4361825696915238</v>
       </c>
     </row>
     <row r="879">
@@ -7154,7 +7114,7 @@
         <v>878</v>
       </c>
       <c r="B879">
-        <v>-2.1203401337070225</v>
+        <v>-2.1220281228211335</v>
       </c>
     </row>
     <row r="880">
@@ -7162,7 +7122,7 @@
         <v>879</v>
       </c>
       <c r="B880">
-        <v>-2.1071723868983789</v>
+        <v>-2.108891092704634</v>
       </c>
     </row>
     <row r="881">
@@ -7170,7 +7130,7 @@
         <v>880</v>
       </c>
       <c r="B881">
-        <v>-1.8647817932021482</v>
+        <v>-1.8661864620142175</v>
       </c>
     </row>
     <row r="882">
@@ -7178,7 +7138,7 @@
         <v>881</v>
       </c>
       <c r="B882">
-        <v>-1.8710577386935925</v>
+        <v>-1.8724737481424969</v>
       </c>
     </row>
     <row r="883">
@@ -7186,7 +7146,7 @@
         <v>882</v>
       </c>
       <c r="B883">
-        <v>-1.437916893914893</v>
+        <v>-1.439191898178785</v>
       </c>
     </row>
     <row r="884">
@@ -7194,7 +7154,7 @@
         <v>883</v>
       </c>
       <c r="B884">
-        <v>-0.93131147106890633</v>
+        <v>-0.93242503258702969</v>
       </c>
     </row>
     <row r="885">
@@ -7202,7 +7162,7 @@
         <v>884</v>
       </c>
       <c r="B885">
-        <v>-1.9975203376381536</v>
+        <v>-1.9982497273758624</v>
       </c>
     </row>
     <row r="886">
@@ -7210,7 +7170,7 @@
         <v>885</v>
       </c>
       <c r="B886">
-        <v>-2.1813733463049001</v>
+        <v>-2.1823838533921274</v>
       </c>
     </row>
     <row r="887">
@@ -7218,7 +7178,7 @@
         <v>886</v>
       </c>
       <c r="B887">
-        <v>-2.1773566482001674</v>
+        <v>-2.1784496751619864</v>
       </c>
     </row>
     <row r="888">
@@ -7226,7 +7186,7 @@
         <v>887</v>
       </c>
       <c r="B888">
-        <v>-1.9087195578455176</v>
+        <v>-1.9097393225597361</v>
       </c>
     </row>
     <row r="889">
@@ -7234,7 +7194,7 @@
         <v>888</v>
       </c>
       <c r="B889">
-        <v>-1.9169753101360283</v>
+        <v>-1.9180065657965484</v>
       </c>
     </row>
     <row r="890">
@@ -7242,7 +7202,7 @@
         <v>889</v>
       </c>
       <c r="B890">
-        <v>-1.4372069347262018</v>
+        <v>-1.4380996280101488</v>
       </c>
     </row>
     <row r="891">
@@ -7250,7 +7210,7 @@
         <v>890</v>
       </c>
       <c r="B891">
-        <v>-0.85288508772496796</v>
+        <v>-0.85402462910913879</v>
       </c>
     </row>
     <row r="892">
@@ -7258,7 +7218,7 @@
         <v>891</v>
       </c>
       <c r="B892">
-        <v>-1.839013960522214</v>
+        <v>-1.8389430180608086</v>
       </c>
     </row>
     <row r="893">
@@ -7266,7 +7226,7 @@
         <v>892</v>
       </c>
       <c r="B893">
-        <v>-2.1332920022110828</v>
+        <v>-2.1333716702637817</v>
       </c>
     </row>
     <row r="894">
@@ -7274,7 +7234,7 @@
         <v>893</v>
       </c>
       <c r="B894">
-        <v>-2.2508452577804698</v>
+        <v>-2.2513006332445822</v>
       </c>
     </row>
     <row r="895">
@@ -7282,7 +7242,7 @@
         <v>894</v>
       </c>
       <c r="B895">
-        <v>-2.1899260115781627</v>
+        <v>-2.1904765135013475</v>
       </c>
     </row>
     <row r="896">
@@ -7290,7 +7250,7 @@
         <v>895</v>
       </c>
       <c r="B896">
-        <v>-1.9234689278846488</v>
+        <v>-1.9241158684001347</v>
       </c>
     </row>
     <row r="897">
@@ -7298,7 +7258,7 @@
         <v>896</v>
       </c>
       <c r="B897">
-        <v>-1.931152857973462</v>
+        <v>-1.931810487524839</v>
       </c>
     </row>
     <row r="898">
@@ -7306,7 +7266,7 @@
         <v>897</v>
       </c>
       <c r="B898">
-        <v>-1.4386401674140765</v>
+        <v>-1.4392058033101143</v>
       </c>
     </row>
     <row r="899">
@@ -7314,7 +7274,7 @@
         <v>898</v>
       </c>
       <c r="B899">
-        <v>-0.86638571825084121</v>
+        <v>-0.86708362693006524</v>
       </c>
     </row>
     <row r="900">
@@ -7322,7 +7282,7 @@
         <v>899</v>
       </c>
       <c r="B900">
-        <v>-2.0382537798358311</v>
+        <v>-2.0375731356331914</v>
       </c>
     </row>
     <row r="901">
@@ -7330,7 +7290,7 @@
         <v>900</v>
       </c>
       <c r="B901">
-        <v>-2.2308168408774049</v>
+        <v>-2.2303137750461248</v>
       </c>
     </row>
     <row r="902">
@@ -7338,7 +7298,7 @@
         <v>901</v>
       </c>
       <c r="B902">
-        <v>-2.2954724845978038</v>
+        <v>-2.2954397579221766</v>
       </c>
     </row>
     <row r="903">
@@ -7346,7 +7306,7 @@
         <v>902</v>
       </c>
       <c r="B903">
-        <v>-2.1848613301795394</v>
+        <v>-2.1848417008028358</v>
       </c>
     </row>
     <row r="904">
@@ -7354,7 +7314,7 @@
         <v>903</v>
       </c>
       <c r="B904">
-        <v>-1.9346283517105065</v>
+        <v>-1.9347364886376199</v>
       </c>
     </row>
     <row r="905">
@@ -7362,7 +7322,7 @@
         <v>904</v>
       </c>
       <c r="B905">
-        <v>-1.9396079729269209</v>
+        <v>-1.9397234616252297</v>
       </c>
     </row>
     <row r="906">
@@ -7370,7 +7330,7 @@
         <v>905</v>
       </c>
       <c r="B906">
-        <v>-1.5143112575968132</v>
+        <v>-1.5146366818029802</v>
       </c>
     </row>
     <row r="907">
@@ -7378,7 +7338,7 @@
         <v>906</v>
       </c>
       <c r="B907">
-        <v>-0.98757474103823384</v>
+        <v>-0.98799425988785305</v>
       </c>
     </row>
     <row r="908">
@@ -7386,7 +7346,7 @@
         <v>907</v>
       </c>
       <c r="B908">
-        <v>-2.2639946881022399</v>
+        <v>-2.2627709484914709</v>
       </c>
     </row>
     <row r="909">
@@ -7394,7 +7354,7 @@
         <v>908</v>
       </c>
       <c r="B909">
-        <v>-2.3781315149740188</v>
+        <v>-2.3772019979854355</v>
       </c>
     </row>
     <row r="910">
@@ -7402,7 +7362,7 @@
         <v>909</v>
       </c>
       <c r="B910">
-        <v>-2.3624081146836211</v>
+        <v>-2.3614840375494923</v>
       </c>
     </row>
     <row r="911">
@@ -7410,7 +7370,7 @@
         <v>910</v>
       </c>
       <c r="B911">
-        <v>-2.2322796993152636</v>
+        <v>-2.2316176952545272</v>
       </c>
     </row>
     <row r="912">
@@ -7418,7 +7378,7 @@
         <v>911</v>
       </c>
       <c r="B912">
-        <v>-1.9360413369796561</v>
+        <v>-1.9356408179354627</v>
       </c>
     </row>
     <row r="913">
@@ -7426,7 +7386,7 @@
         <v>912</v>
       </c>
       <c r="B913">
-        <v>-1.937793545158766</v>
+        <v>-1.9373963948432751</v>
       </c>
     </row>
     <row r="914">
@@ -7434,7 +7394,7 @@
         <v>913</v>
       </c>
       <c r="B914">
-        <v>-1.564531760514785</v>
+        <v>-1.5642452466867875</v>
       </c>
     </row>
     <row r="915">
@@ -7442,7 +7402,7 @@
         <v>914</v>
       </c>
       <c r="B915">
-        <v>-1.0802539297799787</v>
+        <v>-1.0802244327519339</v>
       </c>
     </row>
     <row r="916">
@@ -7450,7 +7410,7 @@
         <v>915</v>
       </c>
       <c r="B916">
-        <v>-0.70585038132961087</v>
+        <v>-0.70606181084160724</v>
       </c>
     </row>
     <row r="917">
@@ -7458,7 +7418,7 @@
         <v>916</v>
       </c>
       <c r="B917">
-        <v>-2.3571993108600431</v>
+        <v>-2.3557866662350389</v>
       </c>
     </row>
     <row r="918">
@@ -7466,7 +7426,7 @@
         <v>917</v>
       </c>
       <c r="B918">
-        <v>-2.1256729347108134</v>
+        <v>-2.1245783562172815</v>
       </c>
     </row>
     <row r="919">
@@ -7474,7 +7434,7 @@
         <v>918</v>
       </c>
       <c r="B919">
-        <v>-1.8882535905443318</v>
+        <v>-1.887359533639231</v>
       </c>
     </row>
     <row r="920">
@@ -7482,7 +7442,7 @@
         <v>919</v>
       </c>
       <c r="B920">
-        <v>-1.8846855523869135</v>
+        <v>-1.8837880177419888</v>
       </c>
     </row>
     <row r="921">
@@ -7490,7 +7450,7 @@
         <v>920</v>
       </c>
       <c r="B921">
-        <v>-1.5615877841463175</v>
+        <v>-1.5608889612968115</v>
       </c>
     </row>
     <row r="922">
@@ -7498,7 +7458,7 @@
         <v>921</v>
       </c>
       <c r="B922">
-        <v>-1.157736903222607</v>
+        <v>-1.1572050614684164</v>
       </c>
     </row>
   </sheetData>
